--- a/Data/immigration_records.xlsx
+++ b/Data/immigration_records.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Documents\UiPath\RPA_CreditCardApproval\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15DBFD9-2D38-4125-9032-C722693C337E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F80CFA3-71A5-4D74-97B2-8B2856BC2DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2E97AD6F-C8ED-41E8-A99D-529865D1ED40}"/>
   </bookViews>
@@ -728,16 +728,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3319C647-C931-4013-AEBB-0D4D2971FF81}">
   <dimension ref="A1:AA16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="14.6640625" customWidth="1"/>
     <col min="3" max="3" width="18.44140625" customWidth="1"/>
     <col min="4" max="4" width="17.44140625" customWidth="1"/>
-    <col min="5" max="12" width="14.6640625" customWidth="1"/>
+    <col min="5" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" customWidth="1"/>
+    <col min="8" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="21.77734375" customWidth="1"/>
+    <col min="11" max="12" width="14.6640625" customWidth="1"/>
     <col min="13" max="13" width="20.44140625" customWidth="1"/>
     <col min="14" max="15" width="14.6640625" customWidth="1"/>
     <col min="16" max="21" width="22.21875" customWidth="1"/>
@@ -821,7 +823,7 @@
         <v>44476</v>
       </c>
       <c r="J2" s="10">
-        <v>44841</v>
+        <v>46302</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>

--- a/Data/immigration_records.xlsx
+++ b/Data/immigration_records.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Documents\UiPath\Final\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88978C5F-BB43-4F7A-8DF0-90AB3A7538E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="R/Splh5rNrEEdzggvXsqnZs/Rut+VTa0VYBwXrPlPEs="/>
@@ -1431,31 +1440,32 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -1465,11 +1475,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -1483,43 +1499,47 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1709,24 +1729,26 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" min="1" max="10" width="18.29"/>
-    <col customWidth="1" min="11" max="26" width="8.71"/>
+    <col min="1" max="10" width="18.33203125" customWidth="1"/>
+    <col min="11" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1758,7 +1780,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1784,13 +1806,13 @@
         <v>17</v>
       </c>
       <c r="I2" s="3">
-        <v>44476.0</v>
+        <v>44476</v>
       </c>
       <c r="J2" s="3">
-        <v>44841.0</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
+        <v>46302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1816,13 +1838,13 @@
         <v>24</v>
       </c>
       <c r="I3" s="5">
-        <v>43962.0</v>
+        <v>43962</v>
       </c>
       <c r="J3" s="5">
-        <v>44692.0</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
+        <v>44692</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
@@ -1848,13 +1870,13 @@
         <v>17</v>
       </c>
       <c r="I4" s="5">
-        <v>43966.0</v>
+        <v>43966</v>
       </c>
       <c r="J4" s="5">
-        <v>44696.0</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
+        <v>44696</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
@@ -1880,13 +1902,13 @@
         <v>24</v>
       </c>
       <c r="I5" s="6">
-        <v>44881.0</v>
+        <v>44881</v>
       </c>
       <c r="J5" s="6">
-        <v>45611.0</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
+        <v>45611</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>37</v>
       </c>
@@ -1912,13 +1934,13 @@
         <v>24</v>
       </c>
       <c r="I6" s="5">
-        <v>43901.0</v>
+        <v>43901</v>
       </c>
       <c r="J6" s="5">
-        <v>44631.0</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>43</v>
       </c>
@@ -1944,13 +1966,13 @@
         <v>24</v>
       </c>
       <c r="I7" s="5">
-        <v>45131.0</v>
+        <v>45131</v>
       </c>
       <c r="J7" s="5">
-        <v>45861.0</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
+        <v>45861</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
@@ -1976,13 +1998,13 @@
         <v>24</v>
       </c>
       <c r="I8" s="5">
-        <v>44641.0</v>
+        <v>44641</v>
       </c>
       <c r="J8" s="5">
-        <v>45371.0</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
+        <v>45371</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>55</v>
       </c>
@@ -2008,13 +2030,13 @@
         <v>24</v>
       </c>
       <c r="I9" s="5">
-        <v>44470.0</v>
+        <v>44470</v>
       </c>
       <c r="J9" s="5">
-        <v>45200.0</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>61</v>
       </c>
@@ -2040,13 +2062,13 @@
         <v>67</v>
       </c>
       <c r="I10" s="5">
-        <v>44601.0</v>
+        <v>44601</v>
       </c>
       <c r="J10" s="5">
-        <v>45331.0</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
+        <v>45331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>68</v>
       </c>
@@ -2072,13 +2094,13 @@
         <v>24</v>
       </c>
       <c r="I11" s="5">
-        <v>45048.0</v>
+        <v>45048</v>
       </c>
       <c r="J11" s="5">
-        <v>45778.0</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
+        <v>45778</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>74</v>
       </c>
@@ -2104,13 +2126,13 @@
         <v>67</v>
       </c>
       <c r="I12" s="5">
-        <v>44866.0</v>
+        <v>44866</v>
       </c>
       <c r="J12" s="6">
-        <v>45596.0</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
+        <v>45596</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>80</v>
       </c>
@@ -2136,13 +2158,13 @@
         <v>17</v>
       </c>
       <c r="I13" s="5">
-        <v>44600.0</v>
+        <v>44600</v>
       </c>
       <c r="J13" s="5">
-        <v>45330.0</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
+        <v>45330</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>86</v>
       </c>
@@ -2168,13 +2190,13 @@
         <v>17</v>
       </c>
       <c r="I14" s="5">
-        <v>44758.0</v>
+        <v>44758</v>
       </c>
       <c r="J14" s="5">
-        <v>45488.0</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
+        <v>45488</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>92</v>
       </c>
@@ -2200,13 +2222,13 @@
         <v>17</v>
       </c>
       <c r="I15" s="5">
-        <v>45202.0</v>
+        <v>45202</v>
       </c>
       <c r="J15" s="5">
-        <v>45932.0</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
+        <v>45932</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>98</v>
       </c>
@@ -2232,13 +2254,13 @@
         <v>17</v>
       </c>
       <c r="I16" s="5">
-        <v>45261.0</v>
+        <v>45261</v>
       </c>
       <c r="J16" s="6">
-        <v>45991.0</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>104</v>
       </c>
@@ -2264,13 +2286,13 @@
         <v>67</v>
       </c>
       <c r="I17" s="5">
-        <v>43851.0</v>
+        <v>43851</v>
       </c>
       <c r="J17" s="5">
-        <v>44581.0</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
+        <v>44581</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>110</v>
       </c>
@@ -2296,13 +2318,13 @@
         <v>17</v>
       </c>
       <c r="I18" s="5">
-        <v>44286.0</v>
+        <v>44286</v>
       </c>
       <c r="J18" s="5">
-        <v>45016.0</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
+        <v>45016</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>116</v>
       </c>
@@ -2328,13 +2350,13 @@
         <v>24</v>
       </c>
       <c r="I19" s="5">
-        <v>44819.0</v>
+        <v>44819</v>
       </c>
       <c r="J19" s="5">
-        <v>45549.0</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
+        <v>45549</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>122</v>
       </c>
@@ -2360,13 +2382,13 @@
         <v>17</v>
       </c>
       <c r="I20" s="5">
-        <v>45196.0</v>
+        <v>45196</v>
       </c>
       <c r="J20" s="5">
-        <v>45926.0</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
+        <v>45926</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>128</v>
       </c>
@@ -2392,13 +2414,13 @@
         <v>17</v>
       </c>
       <c r="I21" s="5">
-        <v>44030.0</v>
+        <v>44030</v>
       </c>
       <c r="J21" s="5">
-        <v>44760.0</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
+        <v>44760</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>134</v>
       </c>
@@ -2424,13 +2446,13 @@
         <v>24</v>
       </c>
       <c r="I22" s="5">
-        <v>44934.0</v>
+        <v>44934</v>
       </c>
       <c r="J22" s="5">
-        <v>45664.0</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
+        <v>45664</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>140</v>
       </c>
@@ -2456,13 +2478,13 @@
         <v>67</v>
       </c>
       <c r="I23" s="5">
-        <v>44022.0</v>
+        <v>44022</v>
       </c>
       <c r="J23" s="5">
-        <v>44752.0</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25" customHeight="1">
+        <v>44752</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>146</v>
       </c>
@@ -2488,13 +2510,13 @@
         <v>67</v>
       </c>
       <c r="I24" s="5">
-        <v>44618.0</v>
+        <v>44618</v>
       </c>
       <c r="J24" s="5">
-        <v>45348.0</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25" customHeight="1">
+        <v>45348</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>152</v>
       </c>
@@ -2520,13 +2542,13 @@
         <v>67</v>
       </c>
       <c r="I25" s="5">
-        <v>44016.0</v>
+        <v>44016</v>
       </c>
       <c r="J25" s="6">
-        <v>45291.0</v>
-      </c>
-    </row>
-    <row r="26" ht="14.25" customHeight="1">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>158</v>
       </c>
@@ -2552,13 +2574,13 @@
         <v>24</v>
       </c>
       <c r="I26" s="5">
-        <v>43943.0</v>
+        <v>43943</v>
       </c>
       <c r="J26" s="5">
-        <v>44673.0</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25" customHeight="1">
+        <v>44673</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>164</v>
       </c>
@@ -2584,13 +2606,13 @@
         <v>17</v>
       </c>
       <c r="I27" s="5">
-        <v>44255.0</v>
+        <v>44255</v>
       </c>
       <c r="J27" s="5">
-        <v>44985.0</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25" customHeight="1">
+        <v>44985</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>170</v>
       </c>
@@ -2616,13 +2638,13 @@
         <v>67</v>
       </c>
       <c r="I28" s="6">
-        <v>44880.0</v>
+        <v>44880</v>
       </c>
       <c r="J28" s="6">
-        <v>45610.0</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25" customHeight="1">
+        <v>45610</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>176</v>
       </c>
@@ -2648,13 +2670,13 @@
         <v>24</v>
       </c>
       <c r="I29" s="5">
-        <v>44871.0</v>
+        <v>44871</v>
       </c>
       <c r="J29" s="5">
-        <v>45601.0</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25" customHeight="1">
+        <v>45601</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>182</v>
       </c>
@@ -2680,13 +2702,13 @@
         <v>67</v>
       </c>
       <c r="I30" s="5">
-        <v>43907.0</v>
+        <v>43907</v>
       </c>
       <c r="J30" s="5">
-        <v>44637.0</v>
-      </c>
-    </row>
-    <row r="31" ht="14.25" customHeight="1">
+        <v>44637</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>188</v>
       </c>
@@ -2712,13 +2734,13 @@
         <v>24</v>
       </c>
       <c r="I31" s="5">
-        <v>43949.0</v>
+        <v>43949</v>
       </c>
       <c r="J31" s="5">
-        <v>44679.0</v>
-      </c>
-    </row>
-    <row r="32" ht="14.25" customHeight="1">
+        <v>44679</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>194</v>
       </c>
@@ -2744,13 +2766,13 @@
         <v>24</v>
       </c>
       <c r="I32" s="6">
-        <v>44544.0</v>
+        <v>44544</v>
       </c>
       <c r="J32" s="6">
-        <v>45274.0</v>
-      </c>
-    </row>
-    <row r="33" ht="14.25" customHeight="1">
+        <v>45274</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>200</v>
       </c>
@@ -2776,13 +2798,13 @@
         <v>17</v>
       </c>
       <c r="I33" s="5">
-        <v>44139.0</v>
+        <v>44139</v>
       </c>
       <c r="J33" s="5">
-        <v>44869.0</v>
-      </c>
-    </row>
-    <row r="34" ht="14.25" customHeight="1">
+        <v>44869</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>206</v>
       </c>
@@ -2808,13 +2830,13 @@
         <v>17</v>
       </c>
       <c r="I34" s="5">
-        <v>45031.0</v>
+        <v>45031</v>
       </c>
       <c r="J34" s="5">
-        <v>45761.0</v>
-      </c>
-    </row>
-    <row r="35" ht="14.25" customHeight="1">
+        <v>45761</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>212</v>
       </c>
@@ -2840,13 +2862,13 @@
         <v>24</v>
       </c>
       <c r="I35" s="5">
-        <v>45112.0</v>
+        <v>45112</v>
       </c>
       <c r="J35" s="6">
-        <v>45291.0</v>
-      </c>
-    </row>
-    <row r="36" ht="14.25" customHeight="1">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>218</v>
       </c>
@@ -2872,13 +2894,13 @@
         <v>17</v>
       </c>
       <c r="I36" s="5">
-        <v>44805.0</v>
+        <v>44805</v>
       </c>
       <c r="J36" s="5">
-        <v>45535.0</v>
-      </c>
-    </row>
-    <row r="37" ht="14.25" customHeight="1">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>224</v>
       </c>
@@ -2904,13 +2926,13 @@
         <v>24</v>
       </c>
       <c r="I37" s="5">
-        <v>44434.0</v>
+        <v>44434</v>
       </c>
       <c r="J37" s="6">
-        <v>45291.0</v>
-      </c>
-    </row>
-    <row r="38" ht="14.25" customHeight="1">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>230</v>
       </c>
@@ -2936,13 +2958,13 @@
         <v>17</v>
       </c>
       <c r="I38" s="5">
-        <v>44681.0</v>
+        <v>44681</v>
       </c>
       <c r="J38" s="6">
-        <v>45291.0</v>
-      </c>
-    </row>
-    <row r="39" ht="14.25" customHeight="1">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>236</v>
       </c>
@@ -2968,13 +2990,13 @@
         <v>17</v>
       </c>
       <c r="I39" s="5">
-        <v>44353.0</v>
+        <v>44353</v>
       </c>
       <c r="J39" s="5">
-        <v>45083.0</v>
-      </c>
-    </row>
-    <row r="40" ht="14.25" customHeight="1">
+        <v>45083</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>242</v>
       </c>
@@ -3000,13 +3022,13 @@
         <v>67</v>
       </c>
       <c r="I40" s="5">
-        <v>44836.0</v>
+        <v>44836</v>
       </c>
       <c r="J40" s="5">
-        <v>45566.0</v>
-      </c>
-    </row>
-    <row r="41" ht="14.25" customHeight="1">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>248</v>
       </c>
@@ -3032,13 +3054,13 @@
         <v>17</v>
       </c>
       <c r="I41" s="5">
-        <v>43856.0</v>
+        <v>43856</v>
       </c>
       <c r="J41" s="5">
-        <v>44586.0</v>
-      </c>
-    </row>
-    <row r="42" ht="14.25" customHeight="1">
+        <v>44586</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>254</v>
       </c>
@@ -3064,13 +3086,13 @@
         <v>67</v>
       </c>
       <c r="I42" s="5">
-        <v>44833.0</v>
+        <v>44833</v>
       </c>
       <c r="J42" s="5">
-        <v>45563.0</v>
-      </c>
-    </row>
-    <row r="43" ht="14.25" customHeight="1">
+        <v>45563</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>260</v>
       </c>
@@ -3096,13 +3118,13 @@
         <v>24</v>
       </c>
       <c r="I43" s="5">
-        <v>44263.0</v>
+        <v>44263</v>
       </c>
       <c r="J43" s="5">
-        <v>44993.0</v>
-      </c>
-    </row>
-    <row r="44" ht="14.25" customHeight="1">
+        <v>44993</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>266</v>
       </c>
@@ -3128,13 +3150,13 @@
         <v>67</v>
       </c>
       <c r="I44" s="5">
-        <v>43923.0</v>
+        <v>43923</v>
       </c>
       <c r="J44" s="5">
-        <v>44653.0</v>
-      </c>
-    </row>
-    <row r="45" ht="14.25" customHeight="1">
+        <v>44653</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>272</v>
       </c>
@@ -3160,13 +3182,13 @@
         <v>24</v>
       </c>
       <c r="I45" s="6">
-        <v>44125.0</v>
+        <v>44125</v>
       </c>
       <c r="J45" s="6">
-        <v>44855.0</v>
-      </c>
-    </row>
-    <row r="46" ht="14.25" customHeight="1">
+        <v>44855</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>278</v>
       </c>
@@ -3192,13 +3214,13 @@
         <v>17</v>
       </c>
       <c r="I46" s="5">
-        <v>43974.0</v>
+        <v>43974</v>
       </c>
       <c r="J46" s="6">
-        <v>45291.0</v>
-      </c>
-    </row>
-    <row r="47" ht="14.25" customHeight="1">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>284</v>
       </c>
@@ -3224,13 +3246,13 @@
         <v>67</v>
       </c>
       <c r="I47" s="5">
-        <v>44904.0</v>
+        <v>44904</v>
       </c>
       <c r="J47" s="5">
-        <v>45634.0</v>
-      </c>
-    </row>
-    <row r="48" ht="14.25" customHeight="1">
+        <v>45634</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>290</v>
       </c>
@@ -3256,13 +3278,13 @@
         <v>17</v>
       </c>
       <c r="I48" s="5">
-        <v>44578.0</v>
+        <v>44578</v>
       </c>
       <c r="J48" s="5">
-        <v>45308.0</v>
-      </c>
-    </row>
-    <row r="49" ht="14.25" customHeight="1">
+        <v>45308</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>296</v>
       </c>
@@ -3288,13 +3310,13 @@
         <v>17</v>
       </c>
       <c r="I49" s="5">
-        <v>44633.0</v>
+        <v>44633</v>
       </c>
       <c r="J49" s="5">
-        <v>45363.0</v>
-      </c>
-    </row>
-    <row r="50" ht="14.25" customHeight="1">
+        <v>45363</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>302</v>
       </c>
@@ -3320,13 +3342,13 @@
         <v>17</v>
       </c>
       <c r="I50" s="5">
-        <v>43955.0</v>
+        <v>43955</v>
       </c>
       <c r="J50" s="5">
-        <v>44685.0</v>
-      </c>
-    </row>
-    <row r="51" ht="14.25" customHeight="1">
+        <v>44685</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>308</v>
       </c>
@@ -3352,13 +3374,13 @@
         <v>17</v>
       </c>
       <c r="I51" s="6">
-        <v>44183.0</v>
+        <v>44183</v>
       </c>
       <c r="J51" s="6">
-        <v>44913.0</v>
-      </c>
-    </row>
-    <row r="52" ht="14.25" customHeight="1">
+        <v>44913</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>314</v>
       </c>
@@ -3384,13 +3406,13 @@
         <v>24</v>
       </c>
       <c r="I52" s="5">
-        <v>44936.0</v>
+        <v>44936</v>
       </c>
       <c r="J52" s="5">
-        <v>45666.0</v>
-      </c>
-    </row>
-    <row r="53" ht="14.25" customHeight="1">
+        <v>45666</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>320</v>
       </c>
@@ -3416,13 +3438,13 @@
         <v>24</v>
       </c>
       <c r="I53" s="5">
-        <v>44722.0</v>
+        <v>44722</v>
       </c>
       <c r="J53" s="5">
-        <v>45452.0</v>
-      </c>
-    </row>
-    <row r="54" ht="14.25" customHeight="1">
+        <v>45452</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>326</v>
       </c>
@@ -3448,13 +3470,13 @@
         <v>67</v>
       </c>
       <c r="I54" s="5">
-        <v>43884.0</v>
+        <v>43884</v>
       </c>
       <c r="J54" s="5">
-        <v>44614.0</v>
-      </c>
-    </row>
-    <row r="55" ht="14.25" customHeight="1">
+        <v>44614</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>332</v>
       </c>
@@ -3480,13 +3502,13 @@
         <v>24</v>
       </c>
       <c r="I55" s="5">
-        <v>44797.0</v>
+        <v>44797</v>
       </c>
       <c r="J55" s="5">
-        <v>45527.0</v>
-      </c>
-    </row>
-    <row r="56" ht="14.25" customHeight="1">
+        <v>45527</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>338</v>
       </c>
@@ -3512,13 +3534,13 @@
         <v>17</v>
       </c>
       <c r="I56" s="5">
-        <v>43845.0</v>
+        <v>43845</v>
       </c>
       <c r="J56" s="5">
-        <v>44575.0</v>
-      </c>
-    </row>
-    <row r="57" ht="14.25" customHeight="1">
+        <v>44575</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>344</v>
       </c>
@@ -3544,13 +3566,13 @@
         <v>17</v>
       </c>
       <c r="I57" s="5">
-        <v>44329.0</v>
+        <v>44329</v>
       </c>
       <c r="J57" s="5">
-        <v>45059.0</v>
-      </c>
-    </row>
-    <row r="58" ht="14.25" customHeight="1">
+        <v>45059</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>350</v>
       </c>
@@ -3576,13 +3598,13 @@
         <v>17</v>
       </c>
       <c r="I58" s="5">
-        <v>44425.0</v>
+        <v>44425</v>
       </c>
       <c r="J58" s="5">
-        <v>45155.0</v>
-      </c>
-    </row>
-    <row r="59" ht="14.25" customHeight="1">
+        <v>45155</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>356</v>
       </c>
@@ -3608,13 +3630,13 @@
         <v>67</v>
       </c>
       <c r="I59" s="5">
-        <v>44206.0</v>
+        <v>44206</v>
       </c>
       <c r="J59" s="5">
-        <v>44936.0</v>
-      </c>
-    </row>
-    <row r="60" ht="14.25" customHeight="1">
+        <v>44936</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>362</v>
       </c>
@@ -3640,13 +3662,13 @@
         <v>17</v>
       </c>
       <c r="I60" s="6">
-        <v>45277.0</v>
+        <v>45277</v>
       </c>
       <c r="J60" s="6">
-        <v>46007.0</v>
-      </c>
-    </row>
-    <row r="61" ht="14.25" customHeight="1">
+        <v>46007</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>368</v>
       </c>
@@ -3672,13 +3694,13 @@
         <v>17</v>
       </c>
       <c r="I61" s="6">
-        <v>45228.0</v>
+        <v>45228</v>
       </c>
       <c r="J61" s="6">
-        <v>45958.0</v>
-      </c>
-    </row>
-    <row r="62" ht="14.25" customHeight="1">
+        <v>45958</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>374</v>
       </c>
@@ -3704,13 +3726,13 @@
         <v>17</v>
       </c>
       <c r="I62" s="5">
-        <v>45234.0</v>
+        <v>45234</v>
       </c>
       <c r="J62" s="5">
-        <v>45964.0</v>
-      </c>
-    </row>
-    <row r="63" ht="14.25" customHeight="1">
+        <v>45964</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>380</v>
       </c>
@@ -3736,13 +3758,13 @@
         <v>67</v>
       </c>
       <c r="I63" s="5">
-        <v>45022.0</v>
+        <v>45022</v>
       </c>
       <c r="J63" s="5">
-        <v>45752.0</v>
-      </c>
-    </row>
-    <row r="64" ht="14.25" customHeight="1">
+        <v>45752</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>386</v>
       </c>
@@ -3768,13 +3790,13 @@
         <v>67</v>
       </c>
       <c r="I64" s="5">
-        <v>44574.0</v>
+        <v>44574</v>
       </c>
       <c r="J64" s="5">
-        <v>45304.0</v>
-      </c>
-    </row>
-    <row r="65" ht="14.25" customHeight="1">
+        <v>45304</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>392</v>
       </c>
@@ -3800,13 +3822,13 @@
         <v>24</v>
       </c>
       <c r="I65" s="5">
-        <v>44801.0</v>
+        <v>44801</v>
       </c>
       <c r="J65" s="5">
-        <v>45531.0</v>
-      </c>
-    </row>
-    <row r="66" ht="14.25" customHeight="1">
+        <v>45531</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>398</v>
       </c>
@@ -3832,13 +3854,13 @@
         <v>24</v>
       </c>
       <c r="I66" s="5">
-        <v>44280.0</v>
+        <v>44280</v>
       </c>
       <c r="J66" s="6">
-        <v>45291.0</v>
-      </c>
-    </row>
-    <row r="67" ht="14.25" customHeight="1">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>404</v>
       </c>
@@ -3864,13 +3886,13 @@
         <v>17</v>
       </c>
       <c r="I67" s="5">
-        <v>44005.0</v>
+        <v>44005</v>
       </c>
       <c r="J67" s="5">
-        <v>44735.0</v>
-      </c>
-    </row>
-    <row r="68" ht="14.25" customHeight="1">
+        <v>44735</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>410</v>
       </c>
@@ -3896,13 +3918,13 @@
         <v>67</v>
       </c>
       <c r="I68" s="5">
-        <v>44982.0</v>
+        <v>44982</v>
       </c>
       <c r="J68" s="5">
-        <v>45712.0</v>
-      </c>
-    </row>
-    <row r="69" ht="14.25" customHeight="1">
+        <v>45712</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>416</v>
       </c>
@@ -3928,13 +3950,13 @@
         <v>17</v>
       </c>
       <c r="I69" s="5">
-        <v>44655.0</v>
+        <v>44655</v>
       </c>
       <c r="J69" s="5">
-        <v>45385.0</v>
-      </c>
-    </row>
-    <row r="70" ht="14.25" customHeight="1">
+        <v>45385</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>422</v>
       </c>
@@ -3960,13 +3982,13 @@
         <v>24</v>
       </c>
       <c r="I70" s="5">
-        <v>44336.0</v>
+        <v>44336</v>
       </c>
       <c r="J70" s="6">
-        <v>45291.0</v>
-      </c>
-    </row>
-    <row r="71" ht="14.25" customHeight="1">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>428</v>
       </c>
@@ -3992,13 +4014,13 @@
         <v>24</v>
       </c>
       <c r="I71" s="5">
-        <v>44963.0</v>
+        <v>44963</v>
       </c>
       <c r="J71" s="5">
-        <v>45693.0</v>
-      </c>
-    </row>
-    <row r="72" ht="14.25" customHeight="1">
+        <v>45693</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>434</v>
       </c>
@@ -4024,13 +4046,13 @@
         <v>24</v>
       </c>
       <c r="I72" s="5">
-        <v>45236.0</v>
+        <v>45236</v>
       </c>
       <c r="J72" s="5">
-        <v>45966.0</v>
-      </c>
-    </row>
-    <row r="73" ht="14.25" customHeight="1">
+        <v>45966</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>440</v>
       </c>
@@ -4056,13 +4078,13 @@
         <v>67</v>
       </c>
       <c r="I73" s="5">
-        <v>45041.0</v>
+        <v>45041</v>
       </c>
       <c r="J73" s="5">
-        <v>45771.0</v>
-      </c>
-    </row>
-    <row r="74" ht="14.25" customHeight="1">
+        <v>45771</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>446</v>
       </c>
@@ -4088,13 +4110,13 @@
         <v>17</v>
       </c>
       <c r="I74" s="5">
-        <v>45104.0</v>
+        <v>45104</v>
       </c>
       <c r="J74" s="5">
-        <v>45834.0</v>
-      </c>
-    </row>
-    <row r="75" ht="14.25" customHeight="1">
+        <v>45834</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>452</v>
       </c>
@@ -4120,13 +4142,13 @@
         <v>24</v>
       </c>
       <c r="I75" s="5">
-        <v>44835.0</v>
+        <v>44835</v>
       </c>
       <c r="J75" s="5">
-        <v>45565.0</v>
-      </c>
-    </row>
-    <row r="76" ht="14.25" customHeight="1">
+        <v>45565</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>458</v>
       </c>
@@ -4152,13 +4174,13 @@
         <v>17</v>
       </c>
       <c r="I76" s="5">
-        <v>45020.0</v>
+        <v>45020</v>
       </c>
       <c r="J76" s="5">
-        <v>45750.0</v>
-      </c>
-    </row>
-    <row r="77" ht="14.25" customHeight="1">
+        <v>45750</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>464</v>
       </c>
@@ -4184,939 +4206,937 @@
         <v>24</v>
       </c>
       <c r="I77" s="5">
-        <v>45004.0</v>
+        <v>45004</v>
       </c>
       <c r="J77" s="6">
-        <v>45291.0</v>
-      </c>
-    </row>
-    <row r="78" ht="14.25" customHeight="1"/>
-    <row r="79" ht="14.25" customHeight="1"/>
-    <row r="80" ht="14.25" customHeight="1"/>
-    <row r="81" ht="14.25" customHeight="1"/>
-    <row r="82" ht="14.25" customHeight="1"/>
-    <row r="83" ht="14.25" customHeight="1"/>
-    <row r="84" ht="14.25" customHeight="1"/>
-    <row r="85" ht="14.25" customHeight="1"/>
-    <row r="86" ht="14.25" customHeight="1"/>
-    <row r="87" ht="14.25" customHeight="1"/>
-    <row r="88" ht="14.25" customHeight="1"/>
-    <row r="89" ht="14.25" customHeight="1"/>
-    <row r="90" ht="14.25" customHeight="1"/>
-    <row r="91" ht="14.25" customHeight="1"/>
-    <row r="92" ht="14.25" customHeight="1"/>
-    <row r="93" ht="14.25" customHeight="1"/>
-    <row r="94" ht="14.25" customHeight="1"/>
-    <row r="95" ht="14.25" customHeight="1"/>
-    <row r="96" ht="14.25" customHeight="1"/>
-    <row r="97" ht="14.25" customHeight="1"/>
-    <row r="98" ht="14.25" customHeight="1"/>
-    <row r="99" ht="14.25" customHeight="1"/>
-    <row r="100" ht="14.25" customHeight="1"/>
-    <row r="101" ht="14.25" customHeight="1"/>
-    <row r="102" ht="14.25" customHeight="1"/>
-    <row r="103" ht="14.25" customHeight="1"/>
-    <row r="104" ht="14.25" customHeight="1"/>
-    <row r="105" ht="14.25" customHeight="1"/>
-    <row r="106" ht="14.25" customHeight="1"/>
-    <row r="107" ht="14.25" customHeight="1"/>
-    <row r="108" ht="14.25" customHeight="1"/>
-    <row r="109" ht="14.25" customHeight="1"/>
-    <row r="110" ht="14.25" customHeight="1"/>
-    <row r="111" ht="14.25" customHeight="1"/>
-    <row r="112" ht="14.25" customHeight="1"/>
-    <row r="113" ht="14.25" customHeight="1"/>
-    <row r="114" ht="14.25" customHeight="1"/>
-    <row r="115" ht="14.25" customHeight="1"/>
-    <row r="116" ht="14.25" customHeight="1"/>
-    <row r="117" ht="14.25" customHeight="1"/>
-    <row r="118" ht="14.25" customHeight="1"/>
-    <row r="119" ht="14.25" customHeight="1"/>
-    <row r="120" ht="14.25" customHeight="1"/>
-    <row r="121" ht="14.25" customHeight="1"/>
-    <row r="122" ht="14.25" customHeight="1"/>
-    <row r="123" ht="14.25" customHeight="1"/>
-    <row r="124" ht="14.25" customHeight="1"/>
-    <row r="125" ht="14.25" customHeight="1"/>
-    <row r="126" ht="14.25" customHeight="1"/>
-    <row r="127" ht="14.25" customHeight="1"/>
-    <row r="128" ht="14.25" customHeight="1"/>
-    <row r="129" ht="14.25" customHeight="1"/>
-    <row r="130" ht="14.25" customHeight="1"/>
-    <row r="131" ht="14.25" customHeight="1"/>
-    <row r="132" ht="14.25" customHeight="1"/>
-    <row r="133" ht="14.25" customHeight="1"/>
-    <row r="134" ht="14.25" customHeight="1"/>
-    <row r="135" ht="14.25" customHeight="1"/>
-    <row r="136" ht="14.25" customHeight="1"/>
-    <row r="137" ht="14.25" customHeight="1"/>
-    <row r="138" ht="14.25" customHeight="1"/>
-    <row r="139" ht="14.25" customHeight="1"/>
-    <row r="140" ht="14.25" customHeight="1"/>
-    <row r="141" ht="14.25" customHeight="1"/>
-    <row r="142" ht="14.25" customHeight="1"/>
-    <row r="143" ht="14.25" customHeight="1"/>
-    <row r="144" ht="14.25" customHeight="1"/>
-    <row r="145" ht="14.25" customHeight="1"/>
-    <row r="146" ht="14.25" customHeight="1"/>
-    <row r="147" ht="14.25" customHeight="1"/>
-    <row r="148" ht="14.25" customHeight="1"/>
-    <row r="149" ht="14.25" customHeight="1"/>
-    <row r="150" ht="14.25" customHeight="1"/>
-    <row r="151" ht="14.25" customHeight="1"/>
-    <row r="152" ht="14.25" customHeight="1"/>
-    <row r="153" ht="14.25" customHeight="1"/>
-    <row r="154" ht="14.25" customHeight="1"/>
-    <row r="155" ht="14.25" customHeight="1"/>
-    <row r="156" ht="14.25" customHeight="1"/>
-    <row r="157" ht="14.25" customHeight="1"/>
-    <row r="158" ht="14.25" customHeight="1"/>
-    <row r="159" ht="14.25" customHeight="1"/>
-    <row r="160" ht="14.25" customHeight="1"/>
-    <row r="161" ht="14.25" customHeight="1"/>
-    <row r="162" ht="14.25" customHeight="1"/>
-    <row r="163" ht="14.25" customHeight="1"/>
-    <row r="164" ht="14.25" customHeight="1"/>
-    <row r="165" ht="14.25" customHeight="1"/>
-    <row r="166" ht="14.25" customHeight="1"/>
-    <row r="167" ht="14.25" customHeight="1"/>
-    <row r="168" ht="14.25" customHeight="1"/>
-    <row r="169" ht="14.25" customHeight="1"/>
-    <row r="170" ht="14.25" customHeight="1"/>
-    <row r="171" ht="14.25" customHeight="1"/>
-    <row r="172" ht="14.25" customHeight="1"/>
-    <row r="173" ht="14.25" customHeight="1"/>
-    <row r="174" ht="14.25" customHeight="1"/>
-    <row r="175" ht="14.25" customHeight="1"/>
-    <row r="176" ht="14.25" customHeight="1"/>
-    <row r="177" ht="14.25" customHeight="1"/>
-    <row r="178" ht="14.25" customHeight="1"/>
-    <row r="179" ht="14.25" customHeight="1"/>
-    <row r="180" ht="14.25" customHeight="1"/>
-    <row r="181" ht="14.25" customHeight="1"/>
-    <row r="182" ht="14.25" customHeight="1"/>
-    <row r="183" ht="14.25" customHeight="1"/>
-    <row r="184" ht="14.25" customHeight="1"/>
-    <row r="185" ht="14.25" customHeight="1"/>
-    <row r="186" ht="14.25" customHeight="1"/>
-    <row r="187" ht="14.25" customHeight="1"/>
-    <row r="188" ht="14.25" customHeight="1"/>
-    <row r="189" ht="14.25" customHeight="1"/>
-    <row r="190" ht="14.25" customHeight="1"/>
-    <row r="191" ht="14.25" customHeight="1"/>
-    <row r="192" ht="14.25" customHeight="1"/>
-    <row r="193" ht="14.25" customHeight="1"/>
-    <row r="194" ht="14.25" customHeight="1"/>
-    <row r="195" ht="14.25" customHeight="1"/>
-    <row r="196" ht="14.25" customHeight="1"/>
-    <row r="197" ht="14.25" customHeight="1"/>
-    <row r="198" ht="14.25" customHeight="1"/>
-    <row r="199" ht="14.25" customHeight="1"/>
-    <row r="200" ht="14.25" customHeight="1"/>
-    <row r="201" ht="14.25" customHeight="1"/>
-    <row r="202" ht="14.25" customHeight="1"/>
-    <row r="203" ht="14.25" customHeight="1"/>
-    <row r="204" ht="14.25" customHeight="1"/>
-    <row r="205" ht="14.25" customHeight="1"/>
-    <row r="206" ht="14.25" customHeight="1"/>
-    <row r="207" ht="14.25" customHeight="1"/>
-    <row r="208" ht="14.25" customHeight="1"/>
-    <row r="209" ht="14.25" customHeight="1"/>
-    <row r="210" ht="14.25" customHeight="1"/>
-    <row r="211" ht="14.25" customHeight="1"/>
-    <row r="212" ht="14.25" customHeight="1"/>
-    <row r="213" ht="14.25" customHeight="1"/>
-    <row r="214" ht="14.25" customHeight="1"/>
-    <row r="215" ht="14.25" customHeight="1"/>
-    <row r="216" ht="14.25" customHeight="1"/>
-    <row r="217" ht="14.25" customHeight="1"/>
-    <row r="218" ht="14.25" customHeight="1"/>
-    <row r="219" ht="14.25" customHeight="1"/>
-    <row r="220" ht="14.25" customHeight="1"/>
-    <row r="221" ht="14.25" customHeight="1"/>
-    <row r="222" ht="14.25" customHeight="1"/>
-    <row r="223" ht="14.25" customHeight="1"/>
-    <row r="224" ht="14.25" customHeight="1"/>
-    <row r="225" ht="14.25" customHeight="1"/>
-    <row r="226" ht="14.25" customHeight="1"/>
-    <row r="227" ht="14.25" customHeight="1"/>
-    <row r="228" ht="14.25" customHeight="1"/>
-    <row r="229" ht="14.25" customHeight="1"/>
-    <row r="230" ht="14.25" customHeight="1"/>
-    <row r="231" ht="14.25" customHeight="1"/>
-    <row r="232" ht="14.25" customHeight="1"/>
-    <row r="233" ht="14.25" customHeight="1"/>
-    <row r="234" ht="14.25" customHeight="1"/>
-    <row r="235" ht="14.25" customHeight="1"/>
-    <row r="236" ht="14.25" customHeight="1"/>
-    <row r="237" ht="14.25" customHeight="1"/>
-    <row r="238" ht="14.25" customHeight="1"/>
-    <row r="239" ht="14.25" customHeight="1"/>
-    <row r="240" ht="14.25" customHeight="1"/>
-    <row r="241" ht="14.25" customHeight="1"/>
-    <row r="242" ht="14.25" customHeight="1"/>
-    <row r="243" ht="14.25" customHeight="1"/>
-    <row r="244" ht="14.25" customHeight="1"/>
-    <row r="245" ht="14.25" customHeight="1"/>
-    <row r="246" ht="14.25" customHeight="1"/>
-    <row r="247" ht="14.25" customHeight="1"/>
-    <row r="248" ht="14.25" customHeight="1"/>
-    <row r="249" ht="14.25" customHeight="1"/>
-    <row r="250" ht="14.25" customHeight="1"/>
-    <row r="251" ht="14.25" customHeight="1"/>
-    <row r="252" ht="14.25" customHeight="1"/>
-    <row r="253" ht="14.25" customHeight="1"/>
-    <row r="254" ht="14.25" customHeight="1"/>
-    <row r="255" ht="14.25" customHeight="1"/>
-    <row r="256" ht="14.25" customHeight="1"/>
-    <row r="257" ht="14.25" customHeight="1"/>
-    <row r="258" ht="14.25" customHeight="1"/>
-    <row r="259" ht="14.25" customHeight="1"/>
-    <row r="260" ht="14.25" customHeight="1"/>
-    <row r="261" ht="14.25" customHeight="1"/>
-    <row r="262" ht="14.25" customHeight="1"/>
-    <row r="263" ht="14.25" customHeight="1"/>
-    <row r="264" ht="14.25" customHeight="1"/>
-    <row r="265" ht="14.25" customHeight="1"/>
-    <row r="266" ht="14.25" customHeight="1"/>
-    <row r="267" ht="14.25" customHeight="1"/>
-    <row r="268" ht="14.25" customHeight="1"/>
-    <row r="269" ht="14.25" customHeight="1"/>
-    <row r="270" ht="14.25" customHeight="1"/>
-    <row r="271" ht="14.25" customHeight="1"/>
-    <row r="272" ht="14.25" customHeight="1"/>
-    <row r="273" ht="14.25" customHeight="1"/>
-    <row r="274" ht="14.25" customHeight="1"/>
-    <row r="275" ht="14.25" customHeight="1"/>
-    <row r="276" ht="14.25" customHeight="1"/>
-    <row r="277" ht="14.25" customHeight="1"/>
-    <row r="278" ht="14.25" customHeight="1"/>
-    <row r="279" ht="14.25" customHeight="1"/>
-    <row r="280" ht="14.25" customHeight="1"/>
-    <row r="281" ht="14.25" customHeight="1"/>
-    <row r="282" ht="14.25" customHeight="1"/>
-    <row r="283" ht="14.25" customHeight="1"/>
-    <row r="284" ht="14.25" customHeight="1"/>
-    <row r="285" ht="14.25" customHeight="1"/>
-    <row r="286" ht="14.25" customHeight="1"/>
-    <row r="287" ht="14.25" customHeight="1"/>
-    <row r="288" ht="14.25" customHeight="1"/>
-    <row r="289" ht="14.25" customHeight="1"/>
-    <row r="290" ht="14.25" customHeight="1"/>
-    <row r="291" ht="14.25" customHeight="1"/>
-    <row r="292" ht="14.25" customHeight="1"/>
-    <row r="293" ht="14.25" customHeight="1"/>
-    <row r="294" ht="14.25" customHeight="1"/>
-    <row r="295" ht="14.25" customHeight="1"/>
-    <row r="296" ht="14.25" customHeight="1"/>
-    <row r="297" ht="14.25" customHeight="1"/>
-    <row r="298" ht="14.25" customHeight="1"/>
-    <row r="299" ht="14.25" customHeight="1"/>
-    <row r="300" ht="14.25" customHeight="1"/>
-    <row r="301" ht="14.25" customHeight="1"/>
-    <row r="302" ht="14.25" customHeight="1"/>
-    <row r="303" ht="14.25" customHeight="1"/>
-    <row r="304" ht="14.25" customHeight="1"/>
-    <row r="305" ht="14.25" customHeight="1"/>
-    <row r="306" ht="14.25" customHeight="1"/>
-    <row r="307" ht="14.25" customHeight="1"/>
-    <row r="308" ht="14.25" customHeight="1"/>
-    <row r="309" ht="14.25" customHeight="1"/>
-    <row r="310" ht="14.25" customHeight="1"/>
-    <row r="311" ht="14.25" customHeight="1"/>
-    <row r="312" ht="14.25" customHeight="1"/>
-    <row r="313" ht="14.25" customHeight="1"/>
-    <row r="314" ht="14.25" customHeight="1"/>
-    <row r="315" ht="14.25" customHeight="1"/>
-    <row r="316" ht="14.25" customHeight="1"/>
-    <row r="317" ht="14.25" customHeight="1"/>
-    <row r="318" ht="14.25" customHeight="1"/>
-    <row r="319" ht="14.25" customHeight="1"/>
-    <row r="320" ht="14.25" customHeight="1"/>
-    <row r="321" ht="14.25" customHeight="1"/>
-    <row r="322" ht="14.25" customHeight="1"/>
-    <row r="323" ht="14.25" customHeight="1"/>
-    <row r="324" ht="14.25" customHeight="1"/>
-    <row r="325" ht="14.25" customHeight="1"/>
-    <row r="326" ht="14.25" customHeight="1"/>
-    <row r="327" ht="14.25" customHeight="1"/>
-    <row r="328" ht="14.25" customHeight="1"/>
-    <row r="329" ht="14.25" customHeight="1"/>
-    <row r="330" ht="14.25" customHeight="1"/>
-    <row r="331" ht="14.25" customHeight="1"/>
-    <row r="332" ht="14.25" customHeight="1"/>
-    <row r="333" ht="14.25" customHeight="1"/>
-    <row r="334" ht="14.25" customHeight="1"/>
-    <row r="335" ht="14.25" customHeight="1"/>
-    <row r="336" ht="14.25" customHeight="1"/>
-    <row r="337" ht="14.25" customHeight="1"/>
-    <row r="338" ht="14.25" customHeight="1"/>
-    <row r="339" ht="14.25" customHeight="1"/>
-    <row r="340" ht="14.25" customHeight="1"/>
-    <row r="341" ht="14.25" customHeight="1"/>
-    <row r="342" ht="14.25" customHeight="1"/>
-    <row r="343" ht="14.25" customHeight="1"/>
-    <row r="344" ht="14.25" customHeight="1"/>
-    <row r="345" ht="14.25" customHeight="1"/>
-    <row r="346" ht="14.25" customHeight="1"/>
-    <row r="347" ht="14.25" customHeight="1"/>
-    <row r="348" ht="14.25" customHeight="1"/>
-    <row r="349" ht="14.25" customHeight="1"/>
-    <row r="350" ht="14.25" customHeight="1"/>
-    <row r="351" ht="14.25" customHeight="1"/>
-    <row r="352" ht="14.25" customHeight="1"/>
-    <row r="353" ht="14.25" customHeight="1"/>
-    <row r="354" ht="14.25" customHeight="1"/>
-    <row r="355" ht="14.25" customHeight="1"/>
-    <row r="356" ht="14.25" customHeight="1"/>
-    <row r="357" ht="14.25" customHeight="1"/>
-    <row r="358" ht="14.25" customHeight="1"/>
-    <row r="359" ht="14.25" customHeight="1"/>
-    <row r="360" ht="14.25" customHeight="1"/>
-    <row r="361" ht="14.25" customHeight="1"/>
-    <row r="362" ht="14.25" customHeight="1"/>
-    <row r="363" ht="14.25" customHeight="1"/>
-    <row r="364" ht="14.25" customHeight="1"/>
-    <row r="365" ht="14.25" customHeight="1"/>
-    <row r="366" ht="14.25" customHeight="1"/>
-    <row r="367" ht="14.25" customHeight="1"/>
-    <row r="368" ht="14.25" customHeight="1"/>
-    <row r="369" ht="14.25" customHeight="1"/>
-    <row r="370" ht="14.25" customHeight="1"/>
-    <row r="371" ht="14.25" customHeight="1"/>
-    <row r="372" ht="14.25" customHeight="1"/>
-    <row r="373" ht="14.25" customHeight="1"/>
-    <row r="374" ht="14.25" customHeight="1"/>
-    <row r="375" ht="14.25" customHeight="1"/>
-    <row r="376" ht="14.25" customHeight="1"/>
-    <row r="377" ht="14.25" customHeight="1"/>
-    <row r="378" ht="14.25" customHeight="1"/>
-    <row r="379" ht="14.25" customHeight="1"/>
-    <row r="380" ht="14.25" customHeight="1"/>
-    <row r="381" ht="14.25" customHeight="1"/>
-    <row r="382" ht="14.25" customHeight="1"/>
-    <row r="383" ht="14.25" customHeight="1"/>
-    <row r="384" ht="14.25" customHeight="1"/>
-    <row r="385" ht="14.25" customHeight="1"/>
-    <row r="386" ht="14.25" customHeight="1"/>
-    <row r="387" ht="14.25" customHeight="1"/>
-    <row r="388" ht="14.25" customHeight="1"/>
-    <row r="389" ht="14.25" customHeight="1"/>
-    <row r="390" ht="14.25" customHeight="1"/>
-    <row r="391" ht="14.25" customHeight="1"/>
-    <row r="392" ht="14.25" customHeight="1"/>
-    <row r="393" ht="14.25" customHeight="1"/>
-    <row r="394" ht="14.25" customHeight="1"/>
-    <row r="395" ht="14.25" customHeight="1"/>
-    <row r="396" ht="14.25" customHeight="1"/>
-    <row r="397" ht="14.25" customHeight="1"/>
-    <row r="398" ht="14.25" customHeight="1"/>
-    <row r="399" ht="14.25" customHeight="1"/>
-    <row r="400" ht="14.25" customHeight="1"/>
-    <row r="401" ht="14.25" customHeight="1"/>
-    <row r="402" ht="14.25" customHeight="1"/>
-    <row r="403" ht="14.25" customHeight="1"/>
-    <row r="404" ht="14.25" customHeight="1"/>
-    <row r="405" ht="14.25" customHeight="1"/>
-    <row r="406" ht="14.25" customHeight="1"/>
-    <row r="407" ht="14.25" customHeight="1"/>
-    <row r="408" ht="14.25" customHeight="1"/>
-    <row r="409" ht="14.25" customHeight="1"/>
-    <row r="410" ht="14.25" customHeight="1"/>
-    <row r="411" ht="14.25" customHeight="1"/>
-    <row r="412" ht="14.25" customHeight="1"/>
-    <row r="413" ht="14.25" customHeight="1"/>
-    <row r="414" ht="14.25" customHeight="1"/>
-    <row r="415" ht="14.25" customHeight="1"/>
-    <row r="416" ht="14.25" customHeight="1"/>
-    <row r="417" ht="14.25" customHeight="1"/>
-    <row r="418" ht="14.25" customHeight="1"/>
-    <row r="419" ht="14.25" customHeight="1"/>
-    <row r="420" ht="14.25" customHeight="1"/>
-    <row r="421" ht="14.25" customHeight="1"/>
-    <row r="422" ht="14.25" customHeight="1"/>
-    <row r="423" ht="14.25" customHeight="1"/>
-    <row r="424" ht="14.25" customHeight="1"/>
-    <row r="425" ht="14.25" customHeight="1"/>
-    <row r="426" ht="14.25" customHeight="1"/>
-    <row r="427" ht="14.25" customHeight="1"/>
-    <row r="428" ht="14.25" customHeight="1"/>
-    <row r="429" ht="14.25" customHeight="1"/>
-    <row r="430" ht="14.25" customHeight="1"/>
-    <row r="431" ht="14.25" customHeight="1"/>
-    <row r="432" ht="14.25" customHeight="1"/>
-    <row r="433" ht="14.25" customHeight="1"/>
-    <row r="434" ht="14.25" customHeight="1"/>
-    <row r="435" ht="14.25" customHeight="1"/>
-    <row r="436" ht="14.25" customHeight="1"/>
-    <row r="437" ht="14.25" customHeight="1"/>
-    <row r="438" ht="14.25" customHeight="1"/>
-    <row r="439" ht="14.25" customHeight="1"/>
-    <row r="440" ht="14.25" customHeight="1"/>
-    <row r="441" ht="14.25" customHeight="1"/>
-    <row r="442" ht="14.25" customHeight="1"/>
-    <row r="443" ht="14.25" customHeight="1"/>
-    <row r="444" ht="14.25" customHeight="1"/>
-    <row r="445" ht="14.25" customHeight="1"/>
-    <row r="446" ht="14.25" customHeight="1"/>
-    <row r="447" ht="14.25" customHeight="1"/>
-    <row r="448" ht="14.25" customHeight="1"/>
-    <row r="449" ht="14.25" customHeight="1"/>
-    <row r="450" ht="14.25" customHeight="1"/>
-    <row r="451" ht="14.25" customHeight="1"/>
-    <row r="452" ht="14.25" customHeight="1"/>
-    <row r="453" ht="14.25" customHeight="1"/>
-    <row r="454" ht="14.25" customHeight="1"/>
-    <row r="455" ht="14.25" customHeight="1"/>
-    <row r="456" ht="14.25" customHeight="1"/>
-    <row r="457" ht="14.25" customHeight="1"/>
-    <row r="458" ht="14.25" customHeight="1"/>
-    <row r="459" ht="14.25" customHeight="1"/>
-    <row r="460" ht="14.25" customHeight="1"/>
-    <row r="461" ht="14.25" customHeight="1"/>
-    <row r="462" ht="14.25" customHeight="1"/>
-    <row r="463" ht="14.25" customHeight="1"/>
-    <row r="464" ht="14.25" customHeight="1"/>
-    <row r="465" ht="14.25" customHeight="1"/>
-    <row r="466" ht="14.25" customHeight="1"/>
-    <row r="467" ht="14.25" customHeight="1"/>
-    <row r="468" ht="14.25" customHeight="1"/>
-    <row r="469" ht="14.25" customHeight="1"/>
-    <row r="470" ht="14.25" customHeight="1"/>
-    <row r="471" ht="14.25" customHeight="1"/>
-    <row r="472" ht="14.25" customHeight="1"/>
-    <row r="473" ht="14.25" customHeight="1"/>
-    <row r="474" ht="14.25" customHeight="1"/>
-    <row r="475" ht="14.25" customHeight="1"/>
-    <row r="476" ht="14.25" customHeight="1"/>
-    <row r="477" ht="14.25" customHeight="1"/>
-    <row r="478" ht="14.25" customHeight="1"/>
-    <row r="479" ht="14.25" customHeight="1"/>
-    <row r="480" ht="14.25" customHeight="1"/>
-    <row r="481" ht="14.25" customHeight="1"/>
-    <row r="482" ht="14.25" customHeight="1"/>
-    <row r="483" ht="14.25" customHeight="1"/>
-    <row r="484" ht="14.25" customHeight="1"/>
-    <row r="485" ht="14.25" customHeight="1"/>
-    <row r="486" ht="14.25" customHeight="1"/>
-    <row r="487" ht="14.25" customHeight="1"/>
-    <row r="488" ht="14.25" customHeight="1"/>
-    <row r="489" ht="14.25" customHeight="1"/>
-    <row r="490" ht="14.25" customHeight="1"/>
-    <row r="491" ht="14.25" customHeight="1"/>
-    <row r="492" ht="14.25" customHeight="1"/>
-    <row r="493" ht="14.25" customHeight="1"/>
-    <row r="494" ht="14.25" customHeight="1"/>
-    <row r="495" ht="14.25" customHeight="1"/>
-    <row r="496" ht="14.25" customHeight="1"/>
-    <row r="497" ht="14.25" customHeight="1"/>
-    <row r="498" ht="14.25" customHeight="1"/>
-    <row r="499" ht="14.25" customHeight="1"/>
-    <row r="500" ht="14.25" customHeight="1"/>
-    <row r="501" ht="14.25" customHeight="1"/>
-    <row r="502" ht="14.25" customHeight="1"/>
-    <row r="503" ht="14.25" customHeight="1"/>
-    <row r="504" ht="14.25" customHeight="1"/>
-    <row r="505" ht="14.25" customHeight="1"/>
-    <row r="506" ht="14.25" customHeight="1"/>
-    <row r="507" ht="14.25" customHeight="1"/>
-    <row r="508" ht="14.25" customHeight="1"/>
-    <row r="509" ht="14.25" customHeight="1"/>
-    <row r="510" ht="14.25" customHeight="1"/>
-    <row r="511" ht="14.25" customHeight="1"/>
-    <row r="512" ht="14.25" customHeight="1"/>
-    <row r="513" ht="14.25" customHeight="1"/>
-    <row r="514" ht="14.25" customHeight="1"/>
-    <row r="515" ht="14.25" customHeight="1"/>
-    <row r="516" ht="14.25" customHeight="1"/>
-    <row r="517" ht="14.25" customHeight="1"/>
-    <row r="518" ht="14.25" customHeight="1"/>
-    <row r="519" ht="14.25" customHeight="1"/>
-    <row r="520" ht="14.25" customHeight="1"/>
-    <row r="521" ht="14.25" customHeight="1"/>
-    <row r="522" ht="14.25" customHeight="1"/>
-    <row r="523" ht="14.25" customHeight="1"/>
-    <row r="524" ht="14.25" customHeight="1"/>
-    <row r="525" ht="14.25" customHeight="1"/>
-    <row r="526" ht="14.25" customHeight="1"/>
-    <row r="527" ht="14.25" customHeight="1"/>
-    <row r="528" ht="14.25" customHeight="1"/>
-    <row r="529" ht="14.25" customHeight="1"/>
-    <row r="530" ht="14.25" customHeight="1"/>
-    <row r="531" ht="14.25" customHeight="1"/>
-    <row r="532" ht="14.25" customHeight="1"/>
-    <row r="533" ht="14.25" customHeight="1"/>
-    <row r="534" ht="14.25" customHeight="1"/>
-    <row r="535" ht="14.25" customHeight="1"/>
-    <row r="536" ht="14.25" customHeight="1"/>
-    <row r="537" ht="14.25" customHeight="1"/>
-    <row r="538" ht="14.25" customHeight="1"/>
-    <row r="539" ht="14.25" customHeight="1"/>
-    <row r="540" ht="14.25" customHeight="1"/>
-    <row r="541" ht="14.25" customHeight="1"/>
-    <row r="542" ht="14.25" customHeight="1"/>
-    <row r="543" ht="14.25" customHeight="1"/>
-    <row r="544" ht="14.25" customHeight="1"/>
-    <row r="545" ht="14.25" customHeight="1"/>
-    <row r="546" ht="14.25" customHeight="1"/>
-    <row r="547" ht="14.25" customHeight="1"/>
-    <row r="548" ht="14.25" customHeight="1"/>
-    <row r="549" ht="14.25" customHeight="1"/>
-    <row r="550" ht="14.25" customHeight="1"/>
-    <row r="551" ht="14.25" customHeight="1"/>
-    <row r="552" ht="14.25" customHeight="1"/>
-    <row r="553" ht="14.25" customHeight="1"/>
-    <row r="554" ht="14.25" customHeight="1"/>
-    <row r="555" ht="14.25" customHeight="1"/>
-    <row r="556" ht="14.25" customHeight="1"/>
-    <row r="557" ht="14.25" customHeight="1"/>
-    <row r="558" ht="14.25" customHeight="1"/>
-    <row r="559" ht="14.25" customHeight="1"/>
-    <row r="560" ht="14.25" customHeight="1"/>
-    <row r="561" ht="14.25" customHeight="1"/>
-    <row r="562" ht="14.25" customHeight="1"/>
-    <row r="563" ht="14.25" customHeight="1"/>
-    <row r="564" ht="14.25" customHeight="1"/>
-    <row r="565" ht="14.25" customHeight="1"/>
-    <row r="566" ht="14.25" customHeight="1"/>
-    <row r="567" ht="14.25" customHeight="1"/>
-    <row r="568" ht="14.25" customHeight="1"/>
-    <row r="569" ht="14.25" customHeight="1"/>
-    <row r="570" ht="14.25" customHeight="1"/>
-    <row r="571" ht="14.25" customHeight="1"/>
-    <row r="572" ht="14.25" customHeight="1"/>
-    <row r="573" ht="14.25" customHeight="1"/>
-    <row r="574" ht="14.25" customHeight="1"/>
-    <row r="575" ht="14.25" customHeight="1"/>
-    <row r="576" ht="14.25" customHeight="1"/>
-    <row r="577" ht="14.25" customHeight="1"/>
-    <row r="578" ht="14.25" customHeight="1"/>
-    <row r="579" ht="14.25" customHeight="1"/>
-    <row r="580" ht="14.25" customHeight="1"/>
-    <row r="581" ht="14.25" customHeight="1"/>
-    <row r="582" ht="14.25" customHeight="1"/>
-    <row r="583" ht="14.25" customHeight="1"/>
-    <row r="584" ht="14.25" customHeight="1"/>
-    <row r="585" ht="14.25" customHeight="1"/>
-    <row r="586" ht="14.25" customHeight="1"/>
-    <row r="587" ht="14.25" customHeight="1"/>
-    <row r="588" ht="14.25" customHeight="1"/>
-    <row r="589" ht="14.25" customHeight="1"/>
-    <row r="590" ht="14.25" customHeight="1"/>
-    <row r="591" ht="14.25" customHeight="1"/>
-    <row r="592" ht="14.25" customHeight="1"/>
-    <row r="593" ht="14.25" customHeight="1"/>
-    <row r="594" ht="14.25" customHeight="1"/>
-    <row r="595" ht="14.25" customHeight="1"/>
-    <row r="596" ht="14.25" customHeight="1"/>
-    <row r="597" ht="14.25" customHeight="1"/>
-    <row r="598" ht="14.25" customHeight="1"/>
-    <row r="599" ht="14.25" customHeight="1"/>
-    <row r="600" ht="14.25" customHeight="1"/>
-    <row r="601" ht="14.25" customHeight="1"/>
-    <row r="602" ht="14.25" customHeight="1"/>
-    <row r="603" ht="14.25" customHeight="1"/>
-    <row r="604" ht="14.25" customHeight="1"/>
-    <row r="605" ht="14.25" customHeight="1"/>
-    <row r="606" ht="14.25" customHeight="1"/>
-    <row r="607" ht="14.25" customHeight="1"/>
-    <row r="608" ht="14.25" customHeight="1"/>
-    <row r="609" ht="14.25" customHeight="1"/>
-    <row r="610" ht="14.25" customHeight="1"/>
-    <row r="611" ht="14.25" customHeight="1"/>
-    <row r="612" ht="14.25" customHeight="1"/>
-    <row r="613" ht="14.25" customHeight="1"/>
-    <row r="614" ht="14.25" customHeight="1"/>
-    <row r="615" ht="14.25" customHeight="1"/>
-    <row r="616" ht="14.25" customHeight="1"/>
-    <row r="617" ht="14.25" customHeight="1"/>
-    <row r="618" ht="14.25" customHeight="1"/>
-    <row r="619" ht="14.25" customHeight="1"/>
-    <row r="620" ht="14.25" customHeight="1"/>
-    <row r="621" ht="14.25" customHeight="1"/>
-    <row r="622" ht="14.25" customHeight="1"/>
-    <row r="623" ht="14.25" customHeight="1"/>
-    <row r="624" ht="14.25" customHeight="1"/>
-    <row r="625" ht="14.25" customHeight="1"/>
-    <row r="626" ht="14.25" customHeight="1"/>
-    <row r="627" ht="14.25" customHeight="1"/>
-    <row r="628" ht="14.25" customHeight="1"/>
-    <row r="629" ht="14.25" customHeight="1"/>
-    <row r="630" ht="14.25" customHeight="1"/>
-    <row r="631" ht="14.25" customHeight="1"/>
-    <row r="632" ht="14.25" customHeight="1"/>
-    <row r="633" ht="14.25" customHeight="1"/>
-    <row r="634" ht="14.25" customHeight="1"/>
-    <row r="635" ht="14.25" customHeight="1"/>
-    <row r="636" ht="14.25" customHeight="1"/>
-    <row r="637" ht="14.25" customHeight="1"/>
-    <row r="638" ht="14.25" customHeight="1"/>
-    <row r="639" ht="14.25" customHeight="1"/>
-    <row r="640" ht="14.25" customHeight="1"/>
-    <row r="641" ht="14.25" customHeight="1"/>
-    <row r="642" ht="14.25" customHeight="1"/>
-    <row r="643" ht="14.25" customHeight="1"/>
-    <row r="644" ht="14.25" customHeight="1"/>
-    <row r="645" ht="14.25" customHeight="1"/>
-    <row r="646" ht="14.25" customHeight="1"/>
-    <row r="647" ht="14.25" customHeight="1"/>
-    <row r="648" ht="14.25" customHeight="1"/>
-    <row r="649" ht="14.25" customHeight="1"/>
-    <row r="650" ht="14.25" customHeight="1"/>
-    <row r="651" ht="14.25" customHeight="1"/>
-    <row r="652" ht="14.25" customHeight="1"/>
-    <row r="653" ht="14.25" customHeight="1"/>
-    <row r="654" ht="14.25" customHeight="1"/>
-    <row r="655" ht="14.25" customHeight="1"/>
-    <row r="656" ht="14.25" customHeight="1"/>
-    <row r="657" ht="14.25" customHeight="1"/>
-    <row r="658" ht="14.25" customHeight="1"/>
-    <row r="659" ht="14.25" customHeight="1"/>
-    <row r="660" ht="14.25" customHeight="1"/>
-    <row r="661" ht="14.25" customHeight="1"/>
-    <row r="662" ht="14.25" customHeight="1"/>
-    <row r="663" ht="14.25" customHeight="1"/>
-    <row r="664" ht="14.25" customHeight="1"/>
-    <row r="665" ht="14.25" customHeight="1"/>
-    <row r="666" ht="14.25" customHeight="1"/>
-    <row r="667" ht="14.25" customHeight="1"/>
-    <row r="668" ht="14.25" customHeight="1"/>
-    <row r="669" ht="14.25" customHeight="1"/>
-    <row r="670" ht="14.25" customHeight="1"/>
-    <row r="671" ht="14.25" customHeight="1"/>
-    <row r="672" ht="14.25" customHeight="1"/>
-    <row r="673" ht="14.25" customHeight="1"/>
-    <row r="674" ht="14.25" customHeight="1"/>
-    <row r="675" ht="14.25" customHeight="1"/>
-    <row r="676" ht="14.25" customHeight="1"/>
-    <row r="677" ht="14.25" customHeight="1"/>
-    <row r="678" ht="14.25" customHeight="1"/>
-    <row r="679" ht="14.25" customHeight="1"/>
-    <row r="680" ht="14.25" customHeight="1"/>
-    <row r="681" ht="14.25" customHeight="1"/>
-    <row r="682" ht="14.25" customHeight="1"/>
-    <row r="683" ht="14.25" customHeight="1"/>
-    <row r="684" ht="14.25" customHeight="1"/>
-    <row r="685" ht="14.25" customHeight="1"/>
-    <row r="686" ht="14.25" customHeight="1"/>
-    <row r="687" ht="14.25" customHeight="1"/>
-    <row r="688" ht="14.25" customHeight="1"/>
-    <row r="689" ht="14.25" customHeight="1"/>
-    <row r="690" ht="14.25" customHeight="1"/>
-    <row r="691" ht="14.25" customHeight="1"/>
-    <row r="692" ht="14.25" customHeight="1"/>
-    <row r="693" ht="14.25" customHeight="1"/>
-    <row r="694" ht="14.25" customHeight="1"/>
-    <row r="695" ht="14.25" customHeight="1"/>
-    <row r="696" ht="14.25" customHeight="1"/>
-    <row r="697" ht="14.25" customHeight="1"/>
-    <row r="698" ht="14.25" customHeight="1"/>
-    <row r="699" ht="14.25" customHeight="1"/>
-    <row r="700" ht="14.25" customHeight="1"/>
-    <row r="701" ht="14.25" customHeight="1"/>
-    <row r="702" ht="14.25" customHeight="1"/>
-    <row r="703" ht="14.25" customHeight="1"/>
-    <row r="704" ht="14.25" customHeight="1"/>
-    <row r="705" ht="14.25" customHeight="1"/>
-    <row r="706" ht="14.25" customHeight="1"/>
-    <row r="707" ht="14.25" customHeight="1"/>
-    <row r="708" ht="14.25" customHeight="1"/>
-    <row r="709" ht="14.25" customHeight="1"/>
-    <row r="710" ht="14.25" customHeight="1"/>
-    <row r="711" ht="14.25" customHeight="1"/>
-    <row r="712" ht="14.25" customHeight="1"/>
-    <row r="713" ht="14.25" customHeight="1"/>
-    <row r="714" ht="14.25" customHeight="1"/>
-    <row r="715" ht="14.25" customHeight="1"/>
-    <row r="716" ht="14.25" customHeight="1"/>
-    <row r="717" ht="14.25" customHeight="1"/>
-    <row r="718" ht="14.25" customHeight="1"/>
-    <row r="719" ht="14.25" customHeight="1"/>
-    <row r="720" ht="14.25" customHeight="1"/>
-    <row r="721" ht="14.25" customHeight="1"/>
-    <row r="722" ht="14.25" customHeight="1"/>
-    <row r="723" ht="14.25" customHeight="1"/>
-    <row r="724" ht="14.25" customHeight="1"/>
-    <row r="725" ht="14.25" customHeight="1"/>
-    <row r="726" ht="14.25" customHeight="1"/>
-    <row r="727" ht="14.25" customHeight="1"/>
-    <row r="728" ht="14.25" customHeight="1"/>
-    <row r="729" ht="14.25" customHeight="1"/>
-    <row r="730" ht="14.25" customHeight="1"/>
-    <row r="731" ht="14.25" customHeight="1"/>
-    <row r="732" ht="14.25" customHeight="1"/>
-    <row r="733" ht="14.25" customHeight="1"/>
-    <row r="734" ht="14.25" customHeight="1"/>
-    <row r="735" ht="14.25" customHeight="1"/>
-    <row r="736" ht="14.25" customHeight="1"/>
-    <row r="737" ht="14.25" customHeight="1"/>
-    <row r="738" ht="14.25" customHeight="1"/>
-    <row r="739" ht="14.25" customHeight="1"/>
-    <row r="740" ht="14.25" customHeight="1"/>
-    <row r="741" ht="14.25" customHeight="1"/>
-    <row r="742" ht="14.25" customHeight="1"/>
-    <row r="743" ht="14.25" customHeight="1"/>
-    <row r="744" ht="14.25" customHeight="1"/>
-    <row r="745" ht="14.25" customHeight="1"/>
-    <row r="746" ht="14.25" customHeight="1"/>
-    <row r="747" ht="14.25" customHeight="1"/>
-    <row r="748" ht="14.25" customHeight="1"/>
-    <row r="749" ht="14.25" customHeight="1"/>
-    <row r="750" ht="14.25" customHeight="1"/>
-    <row r="751" ht="14.25" customHeight="1"/>
-    <row r="752" ht="14.25" customHeight="1"/>
-    <row r="753" ht="14.25" customHeight="1"/>
-    <row r="754" ht="14.25" customHeight="1"/>
-    <row r="755" ht="14.25" customHeight="1"/>
-    <row r="756" ht="14.25" customHeight="1"/>
-    <row r="757" ht="14.25" customHeight="1"/>
-    <row r="758" ht="14.25" customHeight="1"/>
-    <row r="759" ht="14.25" customHeight="1"/>
-    <row r="760" ht="14.25" customHeight="1"/>
-    <row r="761" ht="14.25" customHeight="1"/>
-    <row r="762" ht="14.25" customHeight="1"/>
-    <row r="763" ht="14.25" customHeight="1"/>
-    <row r="764" ht="14.25" customHeight="1"/>
-    <row r="765" ht="14.25" customHeight="1"/>
-    <row r="766" ht="14.25" customHeight="1"/>
-    <row r="767" ht="14.25" customHeight="1"/>
-    <row r="768" ht="14.25" customHeight="1"/>
-    <row r="769" ht="14.25" customHeight="1"/>
-    <row r="770" ht="14.25" customHeight="1"/>
-    <row r="771" ht="14.25" customHeight="1"/>
-    <row r="772" ht="14.25" customHeight="1"/>
-    <row r="773" ht="14.25" customHeight="1"/>
-    <row r="774" ht="14.25" customHeight="1"/>
-    <row r="775" ht="14.25" customHeight="1"/>
-    <row r="776" ht="14.25" customHeight="1"/>
-    <row r="777" ht="14.25" customHeight="1"/>
-    <row r="778" ht="14.25" customHeight="1"/>
-    <row r="779" ht="14.25" customHeight="1"/>
-    <row r="780" ht="14.25" customHeight="1"/>
-    <row r="781" ht="14.25" customHeight="1"/>
-    <row r="782" ht="14.25" customHeight="1"/>
-    <row r="783" ht="14.25" customHeight="1"/>
-    <row r="784" ht="14.25" customHeight="1"/>
-    <row r="785" ht="14.25" customHeight="1"/>
-    <row r="786" ht="14.25" customHeight="1"/>
-    <row r="787" ht="14.25" customHeight="1"/>
-    <row r="788" ht="14.25" customHeight="1"/>
-    <row r="789" ht="14.25" customHeight="1"/>
-    <row r="790" ht="14.25" customHeight="1"/>
-    <row r="791" ht="14.25" customHeight="1"/>
-    <row r="792" ht="14.25" customHeight="1"/>
-    <row r="793" ht="14.25" customHeight="1"/>
-    <row r="794" ht="14.25" customHeight="1"/>
-    <row r="795" ht="14.25" customHeight="1"/>
-    <row r="796" ht="14.25" customHeight="1"/>
-    <row r="797" ht="14.25" customHeight="1"/>
-    <row r="798" ht="14.25" customHeight="1"/>
-    <row r="799" ht="14.25" customHeight="1"/>
-    <row r="800" ht="14.25" customHeight="1"/>
-    <row r="801" ht="14.25" customHeight="1"/>
-    <row r="802" ht="14.25" customHeight="1"/>
-    <row r="803" ht="14.25" customHeight="1"/>
-    <row r="804" ht="14.25" customHeight="1"/>
-    <row r="805" ht="14.25" customHeight="1"/>
-    <row r="806" ht="14.25" customHeight="1"/>
-    <row r="807" ht="14.25" customHeight="1"/>
-    <row r="808" ht="14.25" customHeight="1"/>
-    <row r="809" ht="14.25" customHeight="1"/>
-    <row r="810" ht="14.25" customHeight="1"/>
-    <row r="811" ht="14.25" customHeight="1"/>
-    <row r="812" ht="14.25" customHeight="1"/>
-    <row r="813" ht="14.25" customHeight="1"/>
-    <row r="814" ht="14.25" customHeight="1"/>
-    <row r="815" ht="14.25" customHeight="1"/>
-    <row r="816" ht="14.25" customHeight="1"/>
-    <row r="817" ht="14.25" customHeight="1"/>
-    <row r="818" ht="14.25" customHeight="1"/>
-    <row r="819" ht="14.25" customHeight="1"/>
-    <row r="820" ht="14.25" customHeight="1"/>
-    <row r="821" ht="14.25" customHeight="1"/>
-    <row r="822" ht="14.25" customHeight="1"/>
-    <row r="823" ht="14.25" customHeight="1"/>
-    <row r="824" ht="14.25" customHeight="1"/>
-    <row r="825" ht="14.25" customHeight="1"/>
-    <row r="826" ht="14.25" customHeight="1"/>
-    <row r="827" ht="14.25" customHeight="1"/>
-    <row r="828" ht="14.25" customHeight="1"/>
-    <row r="829" ht="14.25" customHeight="1"/>
-    <row r="830" ht="14.25" customHeight="1"/>
-    <row r="831" ht="14.25" customHeight="1"/>
-    <row r="832" ht="14.25" customHeight="1"/>
-    <row r="833" ht="14.25" customHeight="1"/>
-    <row r="834" ht="14.25" customHeight="1"/>
-    <row r="835" ht="14.25" customHeight="1"/>
-    <row r="836" ht="14.25" customHeight="1"/>
-    <row r="837" ht="14.25" customHeight="1"/>
-    <row r="838" ht="14.25" customHeight="1"/>
-    <row r="839" ht="14.25" customHeight="1"/>
-    <row r="840" ht="14.25" customHeight="1"/>
-    <row r="841" ht="14.25" customHeight="1"/>
-    <row r="842" ht="14.25" customHeight="1"/>
-    <row r="843" ht="14.25" customHeight="1"/>
-    <row r="844" ht="14.25" customHeight="1"/>
-    <row r="845" ht="14.25" customHeight="1"/>
-    <row r="846" ht="14.25" customHeight="1"/>
-    <row r="847" ht="14.25" customHeight="1"/>
-    <row r="848" ht="14.25" customHeight="1"/>
-    <row r="849" ht="14.25" customHeight="1"/>
-    <row r="850" ht="14.25" customHeight="1"/>
-    <row r="851" ht="14.25" customHeight="1"/>
-    <row r="852" ht="14.25" customHeight="1"/>
-    <row r="853" ht="14.25" customHeight="1"/>
-    <row r="854" ht="14.25" customHeight="1"/>
-    <row r="855" ht="14.25" customHeight="1"/>
-    <row r="856" ht="14.25" customHeight="1"/>
-    <row r="857" ht="14.25" customHeight="1"/>
-    <row r="858" ht="14.25" customHeight="1"/>
-    <row r="859" ht="14.25" customHeight="1"/>
-    <row r="860" ht="14.25" customHeight="1"/>
-    <row r="861" ht="14.25" customHeight="1"/>
-    <row r="862" ht="14.25" customHeight="1"/>
-    <row r="863" ht="14.25" customHeight="1"/>
-    <row r="864" ht="14.25" customHeight="1"/>
-    <row r="865" ht="14.25" customHeight="1"/>
-    <row r="866" ht="14.25" customHeight="1"/>
-    <row r="867" ht="14.25" customHeight="1"/>
-    <row r="868" ht="14.25" customHeight="1"/>
-    <row r="869" ht="14.25" customHeight="1"/>
-    <row r="870" ht="14.25" customHeight="1"/>
-    <row r="871" ht="14.25" customHeight="1"/>
-    <row r="872" ht="14.25" customHeight="1"/>
-    <row r="873" ht="14.25" customHeight="1"/>
-    <row r="874" ht="14.25" customHeight="1"/>
-    <row r="875" ht="14.25" customHeight="1"/>
-    <row r="876" ht="14.25" customHeight="1"/>
-    <row r="877" ht="14.25" customHeight="1"/>
-    <row r="878" ht="14.25" customHeight="1"/>
-    <row r="879" ht="14.25" customHeight="1"/>
-    <row r="880" ht="14.25" customHeight="1"/>
-    <row r="881" ht="14.25" customHeight="1"/>
-    <row r="882" ht="14.25" customHeight="1"/>
-    <row r="883" ht="14.25" customHeight="1"/>
-    <row r="884" ht="14.25" customHeight="1"/>
-    <row r="885" ht="14.25" customHeight="1"/>
-    <row r="886" ht="14.25" customHeight="1"/>
-    <row r="887" ht="14.25" customHeight="1"/>
-    <row r="888" ht="14.25" customHeight="1"/>
-    <row r="889" ht="14.25" customHeight="1"/>
-    <row r="890" ht="14.25" customHeight="1"/>
-    <row r="891" ht="14.25" customHeight="1"/>
-    <row r="892" ht="14.25" customHeight="1"/>
-    <row r="893" ht="14.25" customHeight="1"/>
-    <row r="894" ht="14.25" customHeight="1"/>
-    <row r="895" ht="14.25" customHeight="1"/>
-    <row r="896" ht="14.25" customHeight="1"/>
-    <row r="897" ht="14.25" customHeight="1"/>
-    <row r="898" ht="14.25" customHeight="1"/>
-    <row r="899" ht="14.25" customHeight="1"/>
-    <row r="900" ht="14.25" customHeight="1"/>
-    <row r="901" ht="14.25" customHeight="1"/>
-    <row r="902" ht="14.25" customHeight="1"/>
-    <row r="903" ht="14.25" customHeight="1"/>
-    <row r="904" ht="14.25" customHeight="1"/>
-    <row r="905" ht="14.25" customHeight="1"/>
-    <row r="906" ht="14.25" customHeight="1"/>
-    <row r="907" ht="14.25" customHeight="1"/>
-    <row r="908" ht="14.25" customHeight="1"/>
-    <row r="909" ht="14.25" customHeight="1"/>
-    <row r="910" ht="14.25" customHeight="1"/>
-    <row r="911" ht="14.25" customHeight="1"/>
-    <row r="912" ht="14.25" customHeight="1"/>
-    <row r="913" ht="14.25" customHeight="1"/>
-    <row r="914" ht="14.25" customHeight="1"/>
-    <row r="915" ht="14.25" customHeight="1"/>
-    <row r="916" ht="14.25" customHeight="1"/>
-    <row r="917" ht="14.25" customHeight="1"/>
-    <row r="918" ht="14.25" customHeight="1"/>
-    <row r="919" ht="14.25" customHeight="1"/>
-    <row r="920" ht="14.25" customHeight="1"/>
-    <row r="921" ht="14.25" customHeight="1"/>
-    <row r="922" ht="14.25" customHeight="1"/>
-    <row r="923" ht="14.25" customHeight="1"/>
-    <row r="924" ht="14.25" customHeight="1"/>
-    <row r="925" ht="14.25" customHeight="1"/>
-    <row r="926" ht="14.25" customHeight="1"/>
-    <row r="927" ht="14.25" customHeight="1"/>
-    <row r="928" ht="14.25" customHeight="1"/>
-    <row r="929" ht="14.25" customHeight="1"/>
-    <row r="930" ht="14.25" customHeight="1"/>
-    <row r="931" ht="14.25" customHeight="1"/>
-    <row r="932" ht="14.25" customHeight="1"/>
-    <row r="933" ht="14.25" customHeight="1"/>
-    <row r="934" ht="14.25" customHeight="1"/>
-    <row r="935" ht="14.25" customHeight="1"/>
-    <row r="936" ht="14.25" customHeight="1"/>
-    <row r="937" ht="14.25" customHeight="1"/>
-    <row r="938" ht="14.25" customHeight="1"/>
-    <row r="939" ht="14.25" customHeight="1"/>
-    <row r="940" ht="14.25" customHeight="1"/>
-    <row r="941" ht="14.25" customHeight="1"/>
-    <row r="942" ht="14.25" customHeight="1"/>
-    <row r="943" ht="14.25" customHeight="1"/>
-    <row r="944" ht="14.25" customHeight="1"/>
-    <row r="945" ht="14.25" customHeight="1"/>
-    <row r="946" ht="14.25" customHeight="1"/>
-    <row r="947" ht="14.25" customHeight="1"/>
-    <row r="948" ht="14.25" customHeight="1"/>
-    <row r="949" ht="14.25" customHeight="1"/>
-    <row r="950" ht="14.25" customHeight="1"/>
-    <row r="951" ht="14.25" customHeight="1"/>
-    <row r="952" ht="14.25" customHeight="1"/>
-    <row r="953" ht="14.25" customHeight="1"/>
-    <row r="954" ht="14.25" customHeight="1"/>
-    <row r="955" ht="14.25" customHeight="1"/>
-    <row r="956" ht="14.25" customHeight="1"/>
-    <row r="957" ht="14.25" customHeight="1"/>
-    <row r="958" ht="14.25" customHeight="1"/>
-    <row r="959" ht="14.25" customHeight="1"/>
-    <row r="960" ht="14.25" customHeight="1"/>
-    <row r="961" ht="14.25" customHeight="1"/>
-    <row r="962" ht="14.25" customHeight="1"/>
-    <row r="963" ht="14.25" customHeight="1"/>
-    <row r="964" ht="14.25" customHeight="1"/>
-    <row r="965" ht="14.25" customHeight="1"/>
-    <row r="966" ht="14.25" customHeight="1"/>
-    <row r="967" ht="14.25" customHeight="1"/>
-    <row r="968" ht="14.25" customHeight="1"/>
-    <row r="969" ht="14.25" customHeight="1"/>
-    <row r="970" ht="14.25" customHeight="1"/>
-    <row r="971" ht="14.25" customHeight="1"/>
-    <row r="972" ht="14.25" customHeight="1"/>
-    <row r="973" ht="14.25" customHeight="1"/>
-    <row r="974" ht="14.25" customHeight="1"/>
-    <row r="975" ht="14.25" customHeight="1"/>
-    <row r="976" ht="14.25" customHeight="1"/>
-    <row r="977" ht="14.25" customHeight="1"/>
-    <row r="978" ht="14.25" customHeight="1"/>
-    <row r="979" ht="14.25" customHeight="1"/>
-    <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/immigration_records.xlsx
+++ b/Data/immigration_records.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Documents\UiPath\Final\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258A07EB-C120-407B-8358-F5B30C70DDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="R/Splh5rNrEEdzggvXsqnZs/Rut+VTa0VYBwXrPlPEs="/>
@@ -1431,31 +1440,32 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -1465,11 +1475,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -1483,43 +1499,47 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1709,24 +1729,26 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" min="1" max="10" width="18.29"/>
-    <col customWidth="1" min="11" max="26" width="8.71"/>
+    <col min="1" max="10" width="18.33203125" customWidth="1"/>
+    <col min="11" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1758,7 +1780,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1784,13 +1806,13 @@
         <v>17</v>
       </c>
       <c r="I2" s="3">
-        <v>44476.0</v>
+        <v>44476</v>
       </c>
       <c r="J2" s="3">
-        <v>44841.0</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
+        <v>46667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1816,13 +1838,13 @@
         <v>24</v>
       </c>
       <c r="I3" s="5">
-        <v>43962.0</v>
+        <v>43962</v>
       </c>
       <c r="J3" s="5">
-        <v>44692.0</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
+        <v>44692</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
@@ -1848,13 +1870,13 @@
         <v>17</v>
       </c>
       <c r="I4" s="5">
-        <v>43966.0</v>
+        <v>43966</v>
       </c>
       <c r="J4" s="5">
-        <v>44696.0</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
+        <v>44696</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
@@ -1880,13 +1902,13 @@
         <v>24</v>
       </c>
       <c r="I5" s="6">
-        <v>44881.0</v>
+        <v>44881</v>
       </c>
       <c r="J5" s="6">
-        <v>45611.0</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
+        <v>45611</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>37</v>
       </c>
@@ -1912,13 +1934,13 @@
         <v>24</v>
       </c>
       <c r="I6" s="5">
-        <v>43901.0</v>
+        <v>43901</v>
       </c>
       <c r="J6" s="5">
-        <v>44631.0</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>43</v>
       </c>
@@ -1944,13 +1966,13 @@
         <v>24</v>
       </c>
       <c r="I7" s="5">
-        <v>45131.0</v>
+        <v>45131</v>
       </c>
       <c r="J7" s="5">
-        <v>45861.0</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
+        <v>45861</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
@@ -1976,13 +1998,13 @@
         <v>24</v>
       </c>
       <c r="I8" s="5">
-        <v>44641.0</v>
+        <v>44641</v>
       </c>
       <c r="J8" s="5">
-        <v>45371.0</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
+        <v>45371</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>55</v>
       </c>
@@ -2008,13 +2030,13 @@
         <v>24</v>
       </c>
       <c r="I9" s="5">
-        <v>44470.0</v>
+        <v>44470</v>
       </c>
       <c r="J9" s="5">
-        <v>45200.0</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>61</v>
       </c>
@@ -2040,13 +2062,13 @@
         <v>67</v>
       </c>
       <c r="I10" s="5">
-        <v>44601.0</v>
+        <v>44601</v>
       </c>
       <c r="J10" s="5">
-        <v>45331.0</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
+        <v>45331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>68</v>
       </c>
@@ -2072,13 +2094,13 @@
         <v>24</v>
       </c>
       <c r="I11" s="5">
-        <v>45048.0</v>
+        <v>45048</v>
       </c>
       <c r="J11" s="5">
-        <v>45778.0</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
+        <v>45778</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>74</v>
       </c>
@@ -2104,13 +2126,13 @@
         <v>67</v>
       </c>
       <c r="I12" s="5">
-        <v>44866.0</v>
+        <v>44866</v>
       </c>
       <c r="J12" s="6">
-        <v>45596.0</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
+        <v>45596</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>80</v>
       </c>
@@ -2136,13 +2158,13 @@
         <v>17</v>
       </c>
       <c r="I13" s="5">
-        <v>44600.0</v>
+        <v>44600</v>
       </c>
       <c r="J13" s="5">
-        <v>45330.0</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
+        <v>45330</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>86</v>
       </c>
@@ -2168,13 +2190,13 @@
         <v>17</v>
       </c>
       <c r="I14" s="5">
-        <v>44758.0</v>
+        <v>44758</v>
       </c>
       <c r="J14" s="5">
-        <v>45488.0</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
+        <v>45488</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>92</v>
       </c>
@@ -2200,13 +2222,13 @@
         <v>17</v>
       </c>
       <c r="I15" s="5">
-        <v>45202.0</v>
+        <v>45202</v>
       </c>
       <c r="J15" s="5">
-        <v>45932.0</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
+        <v>45932</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>98</v>
       </c>
@@ -2232,13 +2254,13 @@
         <v>17</v>
       </c>
       <c r="I16" s="5">
-        <v>45261.0</v>
+        <v>45261</v>
       </c>
       <c r="J16" s="6">
-        <v>45991.0</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>104</v>
       </c>
@@ -2264,13 +2286,13 @@
         <v>67</v>
       </c>
       <c r="I17" s="5">
-        <v>43851.0</v>
+        <v>43851</v>
       </c>
       <c r="J17" s="5">
-        <v>44581.0</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
+        <v>44581</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>110</v>
       </c>
@@ -2296,13 +2318,13 @@
         <v>17</v>
       </c>
       <c r="I18" s="5">
-        <v>44286.0</v>
+        <v>44286</v>
       </c>
       <c r="J18" s="5">
-        <v>45016.0</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
+        <v>45016</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>116</v>
       </c>
@@ -2328,13 +2350,13 @@
         <v>24</v>
       </c>
       <c r="I19" s="5">
-        <v>44819.0</v>
+        <v>44819</v>
       </c>
       <c r="J19" s="5">
-        <v>45549.0</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
+        <v>45549</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>122</v>
       </c>
@@ -2360,13 +2382,13 @@
         <v>17</v>
       </c>
       <c r="I20" s="5">
-        <v>45196.0</v>
+        <v>45196</v>
       </c>
       <c r="J20" s="5">
-        <v>45926.0</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
+        <v>45926</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>128</v>
       </c>
@@ -2392,13 +2414,13 @@
         <v>17</v>
       </c>
       <c r="I21" s="5">
-        <v>44030.0</v>
+        <v>44030</v>
       </c>
       <c r="J21" s="5">
-        <v>44760.0</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
+        <v>44760</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>134</v>
       </c>
@@ -2424,13 +2446,13 @@
         <v>24</v>
       </c>
       <c r="I22" s="5">
-        <v>44934.0</v>
+        <v>44934</v>
       </c>
       <c r="J22" s="5">
-        <v>45664.0</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
+        <v>45664</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>140</v>
       </c>
@@ -2456,13 +2478,13 @@
         <v>67</v>
       </c>
       <c r="I23" s="5">
-        <v>44022.0</v>
+        <v>44022</v>
       </c>
       <c r="J23" s="5">
-        <v>44752.0</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25" customHeight="1">
+        <v>44752</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>146</v>
       </c>
@@ -2488,13 +2510,13 @@
         <v>67</v>
       </c>
       <c r="I24" s="5">
-        <v>44618.0</v>
+        <v>44618</v>
       </c>
       <c r="J24" s="5">
-        <v>45348.0</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25" customHeight="1">
+        <v>45348</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>152</v>
       </c>
@@ -2520,13 +2542,13 @@
         <v>67</v>
       </c>
       <c r="I25" s="5">
-        <v>44016.0</v>
+        <v>44016</v>
       </c>
       <c r="J25" s="6">
-        <v>45291.0</v>
-      </c>
-    </row>
-    <row r="26" ht="14.25" customHeight="1">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>158</v>
       </c>
@@ -2552,13 +2574,13 @@
         <v>24</v>
       </c>
       <c r="I26" s="5">
-        <v>43943.0</v>
+        <v>43943</v>
       </c>
       <c r="J26" s="5">
-        <v>44673.0</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25" customHeight="1">
+        <v>44673</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>164</v>
       </c>
@@ -2584,13 +2606,13 @@
         <v>17</v>
       </c>
       <c r="I27" s="5">
-        <v>44255.0</v>
+        <v>44255</v>
       </c>
       <c r="J27" s="5">
-        <v>44985.0</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25" customHeight="1">
+        <v>44985</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>170</v>
       </c>
@@ -2616,13 +2638,13 @@
         <v>67</v>
       </c>
       <c r="I28" s="6">
-        <v>44880.0</v>
+        <v>44880</v>
       </c>
       <c r="J28" s="6">
-        <v>45610.0</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25" customHeight="1">
+        <v>45610</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>176</v>
       </c>
@@ -2648,13 +2670,13 @@
         <v>24</v>
       </c>
       <c r="I29" s="5">
-        <v>44871.0</v>
+        <v>44871</v>
       </c>
       <c r="J29" s="5">
-        <v>45601.0</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25" customHeight="1">
+        <v>45601</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>182</v>
       </c>
@@ -2680,13 +2702,13 @@
         <v>67</v>
       </c>
       <c r="I30" s="5">
-        <v>43907.0</v>
+        <v>43907</v>
       </c>
       <c r="J30" s="5">
-        <v>44637.0</v>
-      </c>
-    </row>
-    <row r="31" ht="14.25" customHeight="1">
+        <v>44637</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>188</v>
       </c>
@@ -2712,13 +2734,13 @@
         <v>24</v>
       </c>
       <c r="I31" s="5">
-        <v>43949.0</v>
+        <v>43949</v>
       </c>
       <c r="J31" s="5">
-        <v>44679.0</v>
-      </c>
-    </row>
-    <row r="32" ht="14.25" customHeight="1">
+        <v>44679</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>194</v>
       </c>
@@ -2744,13 +2766,13 @@
         <v>24</v>
       </c>
       <c r="I32" s="6">
-        <v>44544.0</v>
+        <v>44544</v>
       </c>
       <c r="J32" s="6">
-        <v>45274.0</v>
-      </c>
-    </row>
-    <row r="33" ht="14.25" customHeight="1">
+        <v>45274</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>200</v>
       </c>
@@ -2776,13 +2798,13 @@
         <v>17</v>
       </c>
       <c r="I33" s="5">
-        <v>44139.0</v>
+        <v>44139</v>
       </c>
       <c r="J33" s="5">
-        <v>44869.0</v>
-      </c>
-    </row>
-    <row r="34" ht="14.25" customHeight="1">
+        <v>44869</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>206</v>
       </c>
@@ -2808,13 +2830,13 @@
         <v>17</v>
       </c>
       <c r="I34" s="5">
-        <v>45031.0</v>
+        <v>45031</v>
       </c>
       <c r="J34" s="5">
-        <v>45761.0</v>
-      </c>
-    </row>
-    <row r="35" ht="14.25" customHeight="1">
+        <v>45761</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>212</v>
       </c>
@@ -2840,13 +2862,13 @@
         <v>24</v>
       </c>
       <c r="I35" s="5">
-        <v>45112.0</v>
+        <v>45112</v>
       </c>
       <c r="J35" s="6">
-        <v>45291.0</v>
-      </c>
-    </row>
-    <row r="36" ht="14.25" customHeight="1">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>218</v>
       </c>
@@ -2872,13 +2894,13 @@
         <v>17</v>
       </c>
       <c r="I36" s="5">
-        <v>44805.0</v>
+        <v>44805</v>
       </c>
       <c r="J36" s="5">
-        <v>45535.0</v>
-      </c>
-    </row>
-    <row r="37" ht="14.25" customHeight="1">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>224</v>
       </c>
@@ -2904,13 +2926,13 @@
         <v>24</v>
       </c>
       <c r="I37" s="5">
-        <v>44434.0</v>
+        <v>44434</v>
       </c>
       <c r="J37" s="6">
-        <v>45291.0</v>
-      </c>
-    </row>
-    <row r="38" ht="14.25" customHeight="1">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>230</v>
       </c>
@@ -2936,13 +2958,13 @@
         <v>17</v>
       </c>
       <c r="I38" s="5">
-        <v>44681.0</v>
+        <v>44681</v>
       </c>
       <c r="J38" s="6">
-        <v>45291.0</v>
-      </c>
-    </row>
-    <row r="39" ht="14.25" customHeight="1">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>236</v>
       </c>
@@ -2968,13 +2990,13 @@
         <v>17</v>
       </c>
       <c r="I39" s="5">
-        <v>44353.0</v>
+        <v>44353</v>
       </c>
       <c r="J39" s="5">
-        <v>45083.0</v>
-      </c>
-    </row>
-    <row r="40" ht="14.25" customHeight="1">
+        <v>45083</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>242</v>
       </c>
@@ -3000,13 +3022,13 @@
         <v>67</v>
       </c>
       <c r="I40" s="5">
-        <v>44836.0</v>
+        <v>44836</v>
       </c>
       <c r="J40" s="5">
-        <v>45566.0</v>
-      </c>
-    </row>
-    <row r="41" ht="14.25" customHeight="1">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>248</v>
       </c>
@@ -3032,13 +3054,13 @@
         <v>17</v>
       </c>
       <c r="I41" s="5">
-        <v>43856.0</v>
+        <v>43856</v>
       </c>
       <c r="J41" s="5">
-        <v>44586.0</v>
-      </c>
-    </row>
-    <row r="42" ht="14.25" customHeight="1">
+        <v>44586</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>254</v>
       </c>
@@ -3064,13 +3086,13 @@
         <v>67</v>
       </c>
       <c r="I42" s="5">
-        <v>44833.0</v>
+        <v>44833</v>
       </c>
       <c r="J42" s="5">
-        <v>45563.0</v>
-      </c>
-    </row>
-    <row r="43" ht="14.25" customHeight="1">
+        <v>45563</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>260</v>
       </c>
@@ -3096,13 +3118,13 @@
         <v>24</v>
       </c>
       <c r="I43" s="5">
-        <v>44263.0</v>
+        <v>44263</v>
       </c>
       <c r="J43" s="5">
-        <v>44993.0</v>
-      </c>
-    </row>
-    <row r="44" ht="14.25" customHeight="1">
+        <v>44993</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>266</v>
       </c>
@@ -3128,13 +3150,13 @@
         <v>67</v>
       </c>
       <c r="I44" s="5">
-        <v>43923.0</v>
+        <v>43923</v>
       </c>
       <c r="J44" s="5">
-        <v>44653.0</v>
-      </c>
-    </row>
-    <row r="45" ht="14.25" customHeight="1">
+        <v>44653</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>272</v>
       </c>
@@ -3160,13 +3182,13 @@
         <v>24</v>
       </c>
       <c r="I45" s="6">
-        <v>44125.0</v>
+        <v>44125</v>
       </c>
       <c r="J45" s="6">
-        <v>44855.0</v>
-      </c>
-    </row>
-    <row r="46" ht="14.25" customHeight="1">
+        <v>44855</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>278</v>
       </c>
@@ -3192,13 +3214,13 @@
         <v>17</v>
       </c>
       <c r="I46" s="5">
-        <v>43974.0</v>
+        <v>43974</v>
       </c>
       <c r="J46" s="6">
-        <v>45291.0</v>
-      </c>
-    </row>
-    <row r="47" ht="14.25" customHeight="1">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>284</v>
       </c>
@@ -3224,13 +3246,13 @@
         <v>67</v>
       </c>
       <c r="I47" s="5">
-        <v>44904.0</v>
+        <v>44904</v>
       </c>
       <c r="J47" s="5">
-        <v>45634.0</v>
-      </c>
-    </row>
-    <row r="48" ht="14.25" customHeight="1">
+        <v>45634</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>290</v>
       </c>
@@ -3256,13 +3278,13 @@
         <v>17</v>
       </c>
       <c r="I48" s="5">
-        <v>44578.0</v>
+        <v>44578</v>
       </c>
       <c r="J48" s="5">
-        <v>45308.0</v>
-      </c>
-    </row>
-    <row r="49" ht="14.25" customHeight="1">
+        <v>45308</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>296</v>
       </c>
@@ -3288,13 +3310,13 @@
         <v>17</v>
       </c>
       <c r="I49" s="5">
-        <v>44633.0</v>
+        <v>44633</v>
       </c>
       <c r="J49" s="5">
-        <v>45363.0</v>
-      </c>
-    </row>
-    <row r="50" ht="14.25" customHeight="1">
+        <v>45363</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>302</v>
       </c>
@@ -3320,13 +3342,13 @@
         <v>17</v>
       </c>
       <c r="I50" s="5">
-        <v>43955.0</v>
+        <v>43955</v>
       </c>
       <c r="J50" s="5">
-        <v>44685.0</v>
-      </c>
-    </row>
-    <row r="51" ht="14.25" customHeight="1">
+        <v>44685</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>308</v>
       </c>
@@ -3352,13 +3374,13 @@
         <v>17</v>
       </c>
       <c r="I51" s="6">
-        <v>44183.0</v>
+        <v>44183</v>
       </c>
       <c r="J51" s="6">
-        <v>44913.0</v>
-      </c>
-    </row>
-    <row r="52" ht="14.25" customHeight="1">
+        <v>44913</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>314</v>
       </c>
@@ -3384,13 +3406,13 @@
         <v>24</v>
       </c>
       <c r="I52" s="5">
-        <v>44936.0</v>
+        <v>44936</v>
       </c>
       <c r="J52" s="5">
-        <v>45666.0</v>
-      </c>
-    </row>
-    <row r="53" ht="14.25" customHeight="1">
+        <v>45666</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>320</v>
       </c>
@@ -3416,13 +3438,13 @@
         <v>24</v>
       </c>
       <c r="I53" s="5">
-        <v>44722.0</v>
+        <v>44722</v>
       </c>
       <c r="J53" s="5">
-        <v>45452.0</v>
-      </c>
-    </row>
-    <row r="54" ht="14.25" customHeight="1">
+        <v>45452</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>326</v>
       </c>
@@ -3448,13 +3470,13 @@
         <v>67</v>
       </c>
       <c r="I54" s="5">
-        <v>43884.0</v>
+        <v>43884</v>
       </c>
       <c r="J54" s="5">
-        <v>44614.0</v>
-      </c>
-    </row>
-    <row r="55" ht="14.25" customHeight="1">
+        <v>44614</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>332</v>
       </c>
@@ -3480,13 +3502,13 @@
         <v>24</v>
       </c>
       <c r="I55" s="5">
-        <v>44797.0</v>
+        <v>44797</v>
       </c>
       <c r="J55" s="5">
-        <v>45527.0</v>
-      </c>
-    </row>
-    <row r="56" ht="14.25" customHeight="1">
+        <v>45527</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>338</v>
       </c>
@@ -3512,13 +3534,13 @@
         <v>17</v>
       </c>
       <c r="I56" s="5">
-        <v>43845.0</v>
+        <v>43845</v>
       </c>
       <c r="J56" s="5">
-        <v>44575.0</v>
-      </c>
-    </row>
-    <row r="57" ht="14.25" customHeight="1">
+        <v>44575</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>344</v>
       </c>
@@ -3544,13 +3566,13 @@
         <v>17</v>
       </c>
       <c r="I57" s="5">
-        <v>44329.0</v>
+        <v>44329</v>
       </c>
       <c r="J57" s="5">
-        <v>45059.0</v>
-      </c>
-    </row>
-    <row r="58" ht="14.25" customHeight="1">
+        <v>45059</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>350</v>
       </c>
@@ -3576,13 +3598,13 @@
         <v>17</v>
       </c>
       <c r="I58" s="5">
-        <v>44425.0</v>
+        <v>44425</v>
       </c>
       <c r="J58" s="5">
-        <v>45155.0</v>
-      </c>
-    </row>
-    <row r="59" ht="14.25" customHeight="1">
+        <v>45155</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>356</v>
       </c>
@@ -3608,13 +3630,13 @@
         <v>67</v>
       </c>
       <c r="I59" s="5">
-        <v>44206.0</v>
+        <v>44206</v>
       </c>
       <c r="J59" s="5">
-        <v>44936.0</v>
-      </c>
-    </row>
-    <row r="60" ht="14.25" customHeight="1">
+        <v>44936</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>362</v>
       </c>
@@ -3640,13 +3662,13 @@
         <v>17</v>
       </c>
       <c r="I60" s="6">
-        <v>45277.0</v>
+        <v>45277</v>
       </c>
       <c r="J60" s="6">
-        <v>46007.0</v>
-      </c>
-    </row>
-    <row r="61" ht="14.25" customHeight="1">
+        <v>46007</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>368</v>
       </c>
@@ -3672,13 +3694,13 @@
         <v>17</v>
       </c>
       <c r="I61" s="6">
-        <v>45228.0</v>
+        <v>45228</v>
       </c>
       <c r="J61" s="6">
-        <v>45958.0</v>
-      </c>
-    </row>
-    <row r="62" ht="14.25" customHeight="1">
+        <v>45958</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>374</v>
       </c>
@@ -3704,13 +3726,13 @@
         <v>17</v>
       </c>
       <c r="I62" s="5">
-        <v>45234.0</v>
+        <v>45234</v>
       </c>
       <c r="J62" s="5">
-        <v>45964.0</v>
-      </c>
-    </row>
-    <row r="63" ht="14.25" customHeight="1">
+        <v>45964</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>380</v>
       </c>
@@ -3736,13 +3758,13 @@
         <v>67</v>
       </c>
       <c r="I63" s="5">
-        <v>45022.0</v>
+        <v>45022</v>
       </c>
       <c r="J63" s="5">
-        <v>45752.0</v>
-      </c>
-    </row>
-    <row r="64" ht="14.25" customHeight="1">
+        <v>45752</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>386</v>
       </c>
@@ -3768,13 +3790,13 @@
         <v>67</v>
       </c>
       <c r="I64" s="5">
-        <v>44574.0</v>
+        <v>44574</v>
       </c>
       <c r="J64" s="5">
-        <v>45304.0</v>
-      </c>
-    </row>
-    <row r="65" ht="14.25" customHeight="1">
+        <v>45304</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>392</v>
       </c>
@@ -3800,13 +3822,13 @@
         <v>24</v>
       </c>
       <c r="I65" s="5">
-        <v>44801.0</v>
+        <v>44801</v>
       </c>
       <c r="J65" s="5">
-        <v>45531.0</v>
-      </c>
-    </row>
-    <row r="66" ht="14.25" customHeight="1">
+        <v>45531</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>398</v>
       </c>
@@ -3832,13 +3854,13 @@
         <v>24</v>
       </c>
       <c r="I66" s="5">
-        <v>44280.0</v>
+        <v>44280</v>
       </c>
       <c r="J66" s="6">
-        <v>45291.0</v>
-      </c>
-    </row>
-    <row r="67" ht="14.25" customHeight="1">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>404</v>
       </c>
@@ -3864,13 +3886,13 @@
         <v>17</v>
       </c>
       <c r="I67" s="5">
-        <v>44005.0</v>
+        <v>44005</v>
       </c>
       <c r="J67" s="5">
-        <v>44735.0</v>
-      </c>
-    </row>
-    <row r="68" ht="14.25" customHeight="1">
+        <v>44735</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>410</v>
       </c>
@@ -3896,13 +3918,13 @@
         <v>67</v>
       </c>
       <c r="I68" s="5">
-        <v>44982.0</v>
+        <v>44982</v>
       </c>
       <c r="J68" s="5">
-        <v>45712.0</v>
-      </c>
-    </row>
-    <row r="69" ht="14.25" customHeight="1">
+        <v>45712</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>416</v>
       </c>
@@ -3928,13 +3950,13 @@
         <v>17</v>
       </c>
       <c r="I69" s="5">
-        <v>44655.0</v>
+        <v>44655</v>
       </c>
       <c r="J69" s="5">
-        <v>45385.0</v>
-      </c>
-    </row>
-    <row r="70" ht="14.25" customHeight="1">
+        <v>45385</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>422</v>
       </c>
@@ -3960,13 +3982,13 @@
         <v>24</v>
       </c>
       <c r="I70" s="5">
-        <v>44336.0</v>
+        <v>44336</v>
       </c>
       <c r="J70" s="6">
-        <v>45291.0</v>
-      </c>
-    </row>
-    <row r="71" ht="14.25" customHeight="1">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>428</v>
       </c>
@@ -3992,13 +4014,13 @@
         <v>24</v>
       </c>
       <c r="I71" s="5">
-        <v>44963.0</v>
+        <v>44963</v>
       </c>
       <c r="J71" s="5">
-        <v>45693.0</v>
-      </c>
-    </row>
-    <row r="72" ht="14.25" customHeight="1">
+        <v>45693</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>434</v>
       </c>
@@ -4024,13 +4046,13 @@
         <v>24</v>
       </c>
       <c r="I72" s="5">
-        <v>45236.0</v>
+        <v>45236</v>
       </c>
       <c r="J72" s="5">
-        <v>45966.0</v>
-      </c>
-    </row>
-    <row r="73" ht="14.25" customHeight="1">
+        <v>45966</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>440</v>
       </c>
@@ -4056,13 +4078,13 @@
         <v>67</v>
       </c>
       <c r="I73" s="5">
-        <v>45041.0</v>
+        <v>45041</v>
       </c>
       <c r="J73" s="5">
-        <v>45771.0</v>
-      </c>
-    </row>
-    <row r="74" ht="14.25" customHeight="1">
+        <v>45771</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>446</v>
       </c>
@@ -4088,13 +4110,13 @@
         <v>17</v>
       </c>
       <c r="I74" s="5">
-        <v>45104.0</v>
+        <v>45104</v>
       </c>
       <c r="J74" s="5">
-        <v>45834.0</v>
-      </c>
-    </row>
-    <row r="75" ht="14.25" customHeight="1">
+        <v>45834</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>452</v>
       </c>
@@ -4120,13 +4142,13 @@
         <v>24</v>
       </c>
       <c r="I75" s="5">
-        <v>44835.0</v>
+        <v>44835</v>
       </c>
       <c r="J75" s="5">
-        <v>45565.0</v>
-      </c>
-    </row>
-    <row r="76" ht="14.25" customHeight="1">
+        <v>45565</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>458</v>
       </c>
@@ -4152,13 +4174,13 @@
         <v>17</v>
       </c>
       <c r="I76" s="5">
-        <v>45020.0</v>
+        <v>45020</v>
       </c>
       <c r="J76" s="5">
-        <v>45750.0</v>
-      </c>
-    </row>
-    <row r="77" ht="14.25" customHeight="1">
+        <v>45750</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>464</v>
       </c>
@@ -4184,939 +4206,937 @@
         <v>24</v>
       </c>
       <c r="I77" s="5">
-        <v>45004.0</v>
+        <v>45004</v>
       </c>
       <c r="J77" s="6">
-        <v>45291.0</v>
-      </c>
-    </row>
-    <row r="78" ht="14.25" customHeight="1"/>
-    <row r="79" ht="14.25" customHeight="1"/>
-    <row r="80" ht="14.25" customHeight="1"/>
-    <row r="81" ht="14.25" customHeight="1"/>
-    <row r="82" ht="14.25" customHeight="1"/>
-    <row r="83" ht="14.25" customHeight="1"/>
-    <row r="84" ht="14.25" customHeight="1"/>
-    <row r="85" ht="14.25" customHeight="1"/>
-    <row r="86" ht="14.25" customHeight="1"/>
-    <row r="87" ht="14.25" customHeight="1"/>
-    <row r="88" ht="14.25" customHeight="1"/>
-    <row r="89" ht="14.25" customHeight="1"/>
-    <row r="90" ht="14.25" customHeight="1"/>
-    <row r="91" ht="14.25" customHeight="1"/>
-    <row r="92" ht="14.25" customHeight="1"/>
-    <row r="93" ht="14.25" customHeight="1"/>
-    <row r="94" ht="14.25" customHeight="1"/>
-    <row r="95" ht="14.25" customHeight="1"/>
-    <row r="96" ht="14.25" customHeight="1"/>
-    <row r="97" ht="14.25" customHeight="1"/>
-    <row r="98" ht="14.25" customHeight="1"/>
-    <row r="99" ht="14.25" customHeight="1"/>
-    <row r="100" ht="14.25" customHeight="1"/>
-    <row r="101" ht="14.25" customHeight="1"/>
-    <row r="102" ht="14.25" customHeight="1"/>
-    <row r="103" ht="14.25" customHeight="1"/>
-    <row r="104" ht="14.25" customHeight="1"/>
-    <row r="105" ht="14.25" customHeight="1"/>
-    <row r="106" ht="14.25" customHeight="1"/>
-    <row r="107" ht="14.25" customHeight="1"/>
-    <row r="108" ht="14.25" customHeight="1"/>
-    <row r="109" ht="14.25" customHeight="1"/>
-    <row r="110" ht="14.25" customHeight="1"/>
-    <row r="111" ht="14.25" customHeight="1"/>
-    <row r="112" ht="14.25" customHeight="1"/>
-    <row r="113" ht="14.25" customHeight="1"/>
-    <row r="114" ht="14.25" customHeight="1"/>
-    <row r="115" ht="14.25" customHeight="1"/>
-    <row r="116" ht="14.25" customHeight="1"/>
-    <row r="117" ht="14.25" customHeight="1"/>
-    <row r="118" ht="14.25" customHeight="1"/>
-    <row r="119" ht="14.25" customHeight="1"/>
-    <row r="120" ht="14.25" customHeight="1"/>
-    <row r="121" ht="14.25" customHeight="1"/>
-    <row r="122" ht="14.25" customHeight="1"/>
-    <row r="123" ht="14.25" customHeight="1"/>
-    <row r="124" ht="14.25" customHeight="1"/>
-    <row r="125" ht="14.25" customHeight="1"/>
-    <row r="126" ht="14.25" customHeight="1"/>
-    <row r="127" ht="14.25" customHeight="1"/>
-    <row r="128" ht="14.25" customHeight="1"/>
-    <row r="129" ht="14.25" customHeight="1"/>
-    <row r="130" ht="14.25" customHeight="1"/>
-    <row r="131" ht="14.25" customHeight="1"/>
-    <row r="132" ht="14.25" customHeight="1"/>
-    <row r="133" ht="14.25" customHeight="1"/>
-    <row r="134" ht="14.25" customHeight="1"/>
-    <row r="135" ht="14.25" customHeight="1"/>
-    <row r="136" ht="14.25" customHeight="1"/>
-    <row r="137" ht="14.25" customHeight="1"/>
-    <row r="138" ht="14.25" customHeight="1"/>
-    <row r="139" ht="14.25" customHeight="1"/>
-    <row r="140" ht="14.25" customHeight="1"/>
-    <row r="141" ht="14.25" customHeight="1"/>
-    <row r="142" ht="14.25" customHeight="1"/>
-    <row r="143" ht="14.25" customHeight="1"/>
-    <row r="144" ht="14.25" customHeight="1"/>
-    <row r="145" ht="14.25" customHeight="1"/>
-    <row r="146" ht="14.25" customHeight="1"/>
-    <row r="147" ht="14.25" customHeight="1"/>
-    <row r="148" ht="14.25" customHeight="1"/>
-    <row r="149" ht="14.25" customHeight="1"/>
-    <row r="150" ht="14.25" customHeight="1"/>
-    <row r="151" ht="14.25" customHeight="1"/>
-    <row r="152" ht="14.25" customHeight="1"/>
-    <row r="153" ht="14.25" customHeight="1"/>
-    <row r="154" ht="14.25" customHeight="1"/>
-    <row r="155" ht="14.25" customHeight="1"/>
-    <row r="156" ht="14.25" customHeight="1"/>
-    <row r="157" ht="14.25" customHeight="1"/>
-    <row r="158" ht="14.25" customHeight="1"/>
-    <row r="159" ht="14.25" customHeight="1"/>
-    <row r="160" ht="14.25" customHeight="1"/>
-    <row r="161" ht="14.25" customHeight="1"/>
-    <row r="162" ht="14.25" customHeight="1"/>
-    <row r="163" ht="14.25" customHeight="1"/>
-    <row r="164" ht="14.25" customHeight="1"/>
-    <row r="165" ht="14.25" customHeight="1"/>
-    <row r="166" ht="14.25" customHeight="1"/>
-    <row r="167" ht="14.25" customHeight="1"/>
-    <row r="168" ht="14.25" customHeight="1"/>
-    <row r="169" ht="14.25" customHeight="1"/>
-    <row r="170" ht="14.25" customHeight="1"/>
-    <row r="171" ht="14.25" customHeight="1"/>
-    <row r="172" ht="14.25" customHeight="1"/>
-    <row r="173" ht="14.25" customHeight="1"/>
-    <row r="174" ht="14.25" customHeight="1"/>
-    <row r="175" ht="14.25" customHeight="1"/>
-    <row r="176" ht="14.25" customHeight="1"/>
-    <row r="177" ht="14.25" customHeight="1"/>
-    <row r="178" ht="14.25" customHeight="1"/>
-    <row r="179" ht="14.25" customHeight="1"/>
-    <row r="180" ht="14.25" customHeight="1"/>
-    <row r="181" ht="14.25" customHeight="1"/>
-    <row r="182" ht="14.25" customHeight="1"/>
-    <row r="183" ht="14.25" customHeight="1"/>
-    <row r="184" ht="14.25" customHeight="1"/>
-    <row r="185" ht="14.25" customHeight="1"/>
-    <row r="186" ht="14.25" customHeight="1"/>
-    <row r="187" ht="14.25" customHeight="1"/>
-    <row r="188" ht="14.25" customHeight="1"/>
-    <row r="189" ht="14.25" customHeight="1"/>
-    <row r="190" ht="14.25" customHeight="1"/>
-    <row r="191" ht="14.25" customHeight="1"/>
-    <row r="192" ht="14.25" customHeight="1"/>
-    <row r="193" ht="14.25" customHeight="1"/>
-    <row r="194" ht="14.25" customHeight="1"/>
-    <row r="195" ht="14.25" customHeight="1"/>
-    <row r="196" ht="14.25" customHeight="1"/>
-    <row r="197" ht="14.25" customHeight="1"/>
-    <row r="198" ht="14.25" customHeight="1"/>
-    <row r="199" ht="14.25" customHeight="1"/>
-    <row r="200" ht="14.25" customHeight="1"/>
-    <row r="201" ht="14.25" customHeight="1"/>
-    <row r="202" ht="14.25" customHeight="1"/>
-    <row r="203" ht="14.25" customHeight="1"/>
-    <row r="204" ht="14.25" customHeight="1"/>
-    <row r="205" ht="14.25" customHeight="1"/>
-    <row r="206" ht="14.25" customHeight="1"/>
-    <row r="207" ht="14.25" customHeight="1"/>
-    <row r="208" ht="14.25" customHeight="1"/>
-    <row r="209" ht="14.25" customHeight="1"/>
-    <row r="210" ht="14.25" customHeight="1"/>
-    <row r="211" ht="14.25" customHeight="1"/>
-    <row r="212" ht="14.25" customHeight="1"/>
-    <row r="213" ht="14.25" customHeight="1"/>
-    <row r="214" ht="14.25" customHeight="1"/>
-    <row r="215" ht="14.25" customHeight="1"/>
-    <row r="216" ht="14.25" customHeight="1"/>
-    <row r="217" ht="14.25" customHeight="1"/>
-    <row r="218" ht="14.25" customHeight="1"/>
-    <row r="219" ht="14.25" customHeight="1"/>
-    <row r="220" ht="14.25" customHeight="1"/>
-    <row r="221" ht="14.25" customHeight="1"/>
-    <row r="222" ht="14.25" customHeight="1"/>
-    <row r="223" ht="14.25" customHeight="1"/>
-    <row r="224" ht="14.25" customHeight="1"/>
-    <row r="225" ht="14.25" customHeight="1"/>
-    <row r="226" ht="14.25" customHeight="1"/>
-    <row r="227" ht="14.25" customHeight="1"/>
-    <row r="228" ht="14.25" customHeight="1"/>
-    <row r="229" ht="14.25" customHeight="1"/>
-    <row r="230" ht="14.25" customHeight="1"/>
-    <row r="231" ht="14.25" customHeight="1"/>
-    <row r="232" ht="14.25" customHeight="1"/>
-    <row r="233" ht="14.25" customHeight="1"/>
-    <row r="234" ht="14.25" customHeight="1"/>
-    <row r="235" ht="14.25" customHeight="1"/>
-    <row r="236" ht="14.25" customHeight="1"/>
-    <row r="237" ht="14.25" customHeight="1"/>
-    <row r="238" ht="14.25" customHeight="1"/>
-    <row r="239" ht="14.25" customHeight="1"/>
-    <row r="240" ht="14.25" customHeight="1"/>
-    <row r="241" ht="14.25" customHeight="1"/>
-    <row r="242" ht="14.25" customHeight="1"/>
-    <row r="243" ht="14.25" customHeight="1"/>
-    <row r="244" ht="14.25" customHeight="1"/>
-    <row r="245" ht="14.25" customHeight="1"/>
-    <row r="246" ht="14.25" customHeight="1"/>
-    <row r="247" ht="14.25" customHeight="1"/>
-    <row r="248" ht="14.25" customHeight="1"/>
-    <row r="249" ht="14.25" customHeight="1"/>
-    <row r="250" ht="14.25" customHeight="1"/>
-    <row r="251" ht="14.25" customHeight="1"/>
-    <row r="252" ht="14.25" customHeight="1"/>
-    <row r="253" ht="14.25" customHeight="1"/>
-    <row r="254" ht="14.25" customHeight="1"/>
-    <row r="255" ht="14.25" customHeight="1"/>
-    <row r="256" ht="14.25" customHeight="1"/>
-    <row r="257" ht="14.25" customHeight="1"/>
-    <row r="258" ht="14.25" customHeight="1"/>
-    <row r="259" ht="14.25" customHeight="1"/>
-    <row r="260" ht="14.25" customHeight="1"/>
-    <row r="261" ht="14.25" customHeight="1"/>
-    <row r="262" ht="14.25" customHeight="1"/>
-    <row r="263" ht="14.25" customHeight="1"/>
-    <row r="264" ht="14.25" customHeight="1"/>
-    <row r="265" ht="14.25" customHeight="1"/>
-    <row r="266" ht="14.25" customHeight="1"/>
-    <row r="267" ht="14.25" customHeight="1"/>
-    <row r="268" ht="14.25" customHeight="1"/>
-    <row r="269" ht="14.25" customHeight="1"/>
-    <row r="270" ht="14.25" customHeight="1"/>
-    <row r="271" ht="14.25" customHeight="1"/>
-    <row r="272" ht="14.25" customHeight="1"/>
-    <row r="273" ht="14.25" customHeight="1"/>
-    <row r="274" ht="14.25" customHeight="1"/>
-    <row r="275" ht="14.25" customHeight="1"/>
-    <row r="276" ht="14.25" customHeight="1"/>
-    <row r="277" ht="14.25" customHeight="1"/>
-    <row r="278" ht="14.25" customHeight="1"/>
-    <row r="279" ht="14.25" customHeight="1"/>
-    <row r="280" ht="14.25" customHeight="1"/>
-    <row r="281" ht="14.25" customHeight="1"/>
-    <row r="282" ht="14.25" customHeight="1"/>
-    <row r="283" ht="14.25" customHeight="1"/>
-    <row r="284" ht="14.25" customHeight="1"/>
-    <row r="285" ht="14.25" customHeight="1"/>
-    <row r="286" ht="14.25" customHeight="1"/>
-    <row r="287" ht="14.25" customHeight="1"/>
-    <row r="288" ht="14.25" customHeight="1"/>
-    <row r="289" ht="14.25" customHeight="1"/>
-    <row r="290" ht="14.25" customHeight="1"/>
-    <row r="291" ht="14.25" customHeight="1"/>
-    <row r="292" ht="14.25" customHeight="1"/>
-    <row r="293" ht="14.25" customHeight="1"/>
-    <row r="294" ht="14.25" customHeight="1"/>
-    <row r="295" ht="14.25" customHeight="1"/>
-    <row r="296" ht="14.25" customHeight="1"/>
-    <row r="297" ht="14.25" customHeight="1"/>
-    <row r="298" ht="14.25" customHeight="1"/>
-    <row r="299" ht="14.25" customHeight="1"/>
-    <row r="300" ht="14.25" customHeight="1"/>
-    <row r="301" ht="14.25" customHeight="1"/>
-    <row r="302" ht="14.25" customHeight="1"/>
-    <row r="303" ht="14.25" customHeight="1"/>
-    <row r="304" ht="14.25" customHeight="1"/>
-    <row r="305" ht="14.25" customHeight="1"/>
-    <row r="306" ht="14.25" customHeight="1"/>
-    <row r="307" ht="14.25" customHeight="1"/>
-    <row r="308" ht="14.25" customHeight="1"/>
-    <row r="309" ht="14.25" customHeight="1"/>
-    <row r="310" ht="14.25" customHeight="1"/>
-    <row r="311" ht="14.25" customHeight="1"/>
-    <row r="312" ht="14.25" customHeight="1"/>
-    <row r="313" ht="14.25" customHeight="1"/>
-    <row r="314" ht="14.25" customHeight="1"/>
-    <row r="315" ht="14.25" customHeight="1"/>
-    <row r="316" ht="14.25" customHeight="1"/>
-    <row r="317" ht="14.25" customHeight="1"/>
-    <row r="318" ht="14.25" customHeight="1"/>
-    <row r="319" ht="14.25" customHeight="1"/>
-    <row r="320" ht="14.25" customHeight="1"/>
-    <row r="321" ht="14.25" customHeight="1"/>
-    <row r="322" ht="14.25" customHeight="1"/>
-    <row r="323" ht="14.25" customHeight="1"/>
-    <row r="324" ht="14.25" customHeight="1"/>
-    <row r="325" ht="14.25" customHeight="1"/>
-    <row r="326" ht="14.25" customHeight="1"/>
-    <row r="327" ht="14.25" customHeight="1"/>
-    <row r="328" ht="14.25" customHeight="1"/>
-    <row r="329" ht="14.25" customHeight="1"/>
-    <row r="330" ht="14.25" customHeight="1"/>
-    <row r="331" ht="14.25" customHeight="1"/>
-    <row r="332" ht="14.25" customHeight="1"/>
-    <row r="333" ht="14.25" customHeight="1"/>
-    <row r="334" ht="14.25" customHeight="1"/>
-    <row r="335" ht="14.25" customHeight="1"/>
-    <row r="336" ht="14.25" customHeight="1"/>
-    <row r="337" ht="14.25" customHeight="1"/>
-    <row r="338" ht="14.25" customHeight="1"/>
-    <row r="339" ht="14.25" customHeight="1"/>
-    <row r="340" ht="14.25" customHeight="1"/>
-    <row r="341" ht="14.25" customHeight="1"/>
-    <row r="342" ht="14.25" customHeight="1"/>
-    <row r="343" ht="14.25" customHeight="1"/>
-    <row r="344" ht="14.25" customHeight="1"/>
-    <row r="345" ht="14.25" customHeight="1"/>
-    <row r="346" ht="14.25" customHeight="1"/>
-    <row r="347" ht="14.25" customHeight="1"/>
-    <row r="348" ht="14.25" customHeight="1"/>
-    <row r="349" ht="14.25" customHeight="1"/>
-    <row r="350" ht="14.25" customHeight="1"/>
-    <row r="351" ht="14.25" customHeight="1"/>
-    <row r="352" ht="14.25" customHeight="1"/>
-    <row r="353" ht="14.25" customHeight="1"/>
-    <row r="354" ht="14.25" customHeight="1"/>
-    <row r="355" ht="14.25" customHeight="1"/>
-    <row r="356" ht="14.25" customHeight="1"/>
-    <row r="357" ht="14.25" customHeight="1"/>
-    <row r="358" ht="14.25" customHeight="1"/>
-    <row r="359" ht="14.25" customHeight="1"/>
-    <row r="360" ht="14.25" customHeight="1"/>
-    <row r="361" ht="14.25" customHeight="1"/>
-    <row r="362" ht="14.25" customHeight="1"/>
-    <row r="363" ht="14.25" customHeight="1"/>
-    <row r="364" ht="14.25" customHeight="1"/>
-    <row r="365" ht="14.25" customHeight="1"/>
-    <row r="366" ht="14.25" customHeight="1"/>
-    <row r="367" ht="14.25" customHeight="1"/>
-    <row r="368" ht="14.25" customHeight="1"/>
-    <row r="369" ht="14.25" customHeight="1"/>
-    <row r="370" ht="14.25" customHeight="1"/>
-    <row r="371" ht="14.25" customHeight="1"/>
-    <row r="372" ht="14.25" customHeight="1"/>
-    <row r="373" ht="14.25" customHeight="1"/>
-    <row r="374" ht="14.25" customHeight="1"/>
-    <row r="375" ht="14.25" customHeight="1"/>
-    <row r="376" ht="14.25" customHeight="1"/>
-    <row r="377" ht="14.25" customHeight="1"/>
-    <row r="378" ht="14.25" customHeight="1"/>
-    <row r="379" ht="14.25" customHeight="1"/>
-    <row r="380" ht="14.25" customHeight="1"/>
-    <row r="381" ht="14.25" customHeight="1"/>
-    <row r="382" ht="14.25" customHeight="1"/>
-    <row r="383" ht="14.25" customHeight="1"/>
-    <row r="384" ht="14.25" customHeight="1"/>
-    <row r="385" ht="14.25" customHeight="1"/>
-    <row r="386" ht="14.25" customHeight="1"/>
-    <row r="387" ht="14.25" customHeight="1"/>
-    <row r="388" ht="14.25" customHeight="1"/>
-    <row r="389" ht="14.25" customHeight="1"/>
-    <row r="390" ht="14.25" customHeight="1"/>
-    <row r="391" ht="14.25" customHeight="1"/>
-    <row r="392" ht="14.25" customHeight="1"/>
-    <row r="393" ht="14.25" customHeight="1"/>
-    <row r="394" ht="14.25" customHeight="1"/>
-    <row r="395" ht="14.25" customHeight="1"/>
-    <row r="396" ht="14.25" customHeight="1"/>
-    <row r="397" ht="14.25" customHeight="1"/>
-    <row r="398" ht="14.25" customHeight="1"/>
-    <row r="399" ht="14.25" customHeight="1"/>
-    <row r="400" ht="14.25" customHeight="1"/>
-    <row r="401" ht="14.25" customHeight="1"/>
-    <row r="402" ht="14.25" customHeight="1"/>
-    <row r="403" ht="14.25" customHeight="1"/>
-    <row r="404" ht="14.25" customHeight="1"/>
-    <row r="405" ht="14.25" customHeight="1"/>
-    <row r="406" ht="14.25" customHeight="1"/>
-    <row r="407" ht="14.25" customHeight="1"/>
-    <row r="408" ht="14.25" customHeight="1"/>
-    <row r="409" ht="14.25" customHeight="1"/>
-    <row r="410" ht="14.25" customHeight="1"/>
-    <row r="411" ht="14.25" customHeight="1"/>
-    <row r="412" ht="14.25" customHeight="1"/>
-    <row r="413" ht="14.25" customHeight="1"/>
-    <row r="414" ht="14.25" customHeight="1"/>
-    <row r="415" ht="14.25" customHeight="1"/>
-    <row r="416" ht="14.25" customHeight="1"/>
-    <row r="417" ht="14.25" customHeight="1"/>
-    <row r="418" ht="14.25" customHeight="1"/>
-    <row r="419" ht="14.25" customHeight="1"/>
-    <row r="420" ht="14.25" customHeight="1"/>
-    <row r="421" ht="14.25" customHeight="1"/>
-    <row r="422" ht="14.25" customHeight="1"/>
-    <row r="423" ht="14.25" customHeight="1"/>
-    <row r="424" ht="14.25" customHeight="1"/>
-    <row r="425" ht="14.25" customHeight="1"/>
-    <row r="426" ht="14.25" customHeight="1"/>
-    <row r="427" ht="14.25" customHeight="1"/>
-    <row r="428" ht="14.25" customHeight="1"/>
-    <row r="429" ht="14.25" customHeight="1"/>
-    <row r="430" ht="14.25" customHeight="1"/>
-    <row r="431" ht="14.25" customHeight="1"/>
-    <row r="432" ht="14.25" customHeight="1"/>
-    <row r="433" ht="14.25" customHeight="1"/>
-    <row r="434" ht="14.25" customHeight="1"/>
-    <row r="435" ht="14.25" customHeight="1"/>
-    <row r="436" ht="14.25" customHeight="1"/>
-    <row r="437" ht="14.25" customHeight="1"/>
-    <row r="438" ht="14.25" customHeight="1"/>
-    <row r="439" ht="14.25" customHeight="1"/>
-    <row r="440" ht="14.25" customHeight="1"/>
-    <row r="441" ht="14.25" customHeight="1"/>
-    <row r="442" ht="14.25" customHeight="1"/>
-    <row r="443" ht="14.25" customHeight="1"/>
-    <row r="444" ht="14.25" customHeight="1"/>
-    <row r="445" ht="14.25" customHeight="1"/>
-    <row r="446" ht="14.25" customHeight="1"/>
-    <row r="447" ht="14.25" customHeight="1"/>
-    <row r="448" ht="14.25" customHeight="1"/>
-    <row r="449" ht="14.25" customHeight="1"/>
-    <row r="450" ht="14.25" customHeight="1"/>
-    <row r="451" ht="14.25" customHeight="1"/>
-    <row r="452" ht="14.25" customHeight="1"/>
-    <row r="453" ht="14.25" customHeight="1"/>
-    <row r="454" ht="14.25" customHeight="1"/>
-    <row r="455" ht="14.25" customHeight="1"/>
-    <row r="456" ht="14.25" customHeight="1"/>
-    <row r="457" ht="14.25" customHeight="1"/>
-    <row r="458" ht="14.25" customHeight="1"/>
-    <row r="459" ht="14.25" customHeight="1"/>
-    <row r="460" ht="14.25" customHeight="1"/>
-    <row r="461" ht="14.25" customHeight="1"/>
-    <row r="462" ht="14.25" customHeight="1"/>
-    <row r="463" ht="14.25" customHeight="1"/>
-    <row r="464" ht="14.25" customHeight="1"/>
-    <row r="465" ht="14.25" customHeight="1"/>
-    <row r="466" ht="14.25" customHeight="1"/>
-    <row r="467" ht="14.25" customHeight="1"/>
-    <row r="468" ht="14.25" customHeight="1"/>
-    <row r="469" ht="14.25" customHeight="1"/>
-    <row r="470" ht="14.25" customHeight="1"/>
-    <row r="471" ht="14.25" customHeight="1"/>
-    <row r="472" ht="14.25" customHeight="1"/>
-    <row r="473" ht="14.25" customHeight="1"/>
-    <row r="474" ht="14.25" customHeight="1"/>
-    <row r="475" ht="14.25" customHeight="1"/>
-    <row r="476" ht="14.25" customHeight="1"/>
-    <row r="477" ht="14.25" customHeight="1"/>
-    <row r="478" ht="14.25" customHeight="1"/>
-    <row r="479" ht="14.25" customHeight="1"/>
-    <row r="480" ht="14.25" customHeight="1"/>
-    <row r="481" ht="14.25" customHeight="1"/>
-    <row r="482" ht="14.25" customHeight="1"/>
-    <row r="483" ht="14.25" customHeight="1"/>
-    <row r="484" ht="14.25" customHeight="1"/>
-    <row r="485" ht="14.25" customHeight="1"/>
-    <row r="486" ht="14.25" customHeight="1"/>
-    <row r="487" ht="14.25" customHeight="1"/>
-    <row r="488" ht="14.25" customHeight="1"/>
-    <row r="489" ht="14.25" customHeight="1"/>
-    <row r="490" ht="14.25" customHeight="1"/>
-    <row r="491" ht="14.25" customHeight="1"/>
-    <row r="492" ht="14.25" customHeight="1"/>
-    <row r="493" ht="14.25" customHeight="1"/>
-    <row r="494" ht="14.25" customHeight="1"/>
-    <row r="495" ht="14.25" customHeight="1"/>
-    <row r="496" ht="14.25" customHeight="1"/>
-    <row r="497" ht="14.25" customHeight="1"/>
-    <row r="498" ht="14.25" customHeight="1"/>
-    <row r="499" ht="14.25" customHeight="1"/>
-    <row r="500" ht="14.25" customHeight="1"/>
-    <row r="501" ht="14.25" customHeight="1"/>
-    <row r="502" ht="14.25" customHeight="1"/>
-    <row r="503" ht="14.25" customHeight="1"/>
-    <row r="504" ht="14.25" customHeight="1"/>
-    <row r="505" ht="14.25" customHeight="1"/>
-    <row r="506" ht="14.25" customHeight="1"/>
-    <row r="507" ht="14.25" customHeight="1"/>
-    <row r="508" ht="14.25" customHeight="1"/>
-    <row r="509" ht="14.25" customHeight="1"/>
-    <row r="510" ht="14.25" customHeight="1"/>
-    <row r="511" ht="14.25" customHeight="1"/>
-    <row r="512" ht="14.25" customHeight="1"/>
-    <row r="513" ht="14.25" customHeight="1"/>
-    <row r="514" ht="14.25" customHeight="1"/>
-    <row r="515" ht="14.25" customHeight="1"/>
-    <row r="516" ht="14.25" customHeight="1"/>
-    <row r="517" ht="14.25" customHeight="1"/>
-    <row r="518" ht="14.25" customHeight="1"/>
-    <row r="519" ht="14.25" customHeight="1"/>
-    <row r="520" ht="14.25" customHeight="1"/>
-    <row r="521" ht="14.25" customHeight="1"/>
-    <row r="522" ht="14.25" customHeight="1"/>
-    <row r="523" ht="14.25" customHeight="1"/>
-    <row r="524" ht="14.25" customHeight="1"/>
-    <row r="525" ht="14.25" customHeight="1"/>
-    <row r="526" ht="14.25" customHeight="1"/>
-    <row r="527" ht="14.25" customHeight="1"/>
-    <row r="528" ht="14.25" customHeight="1"/>
-    <row r="529" ht="14.25" customHeight="1"/>
-    <row r="530" ht="14.25" customHeight="1"/>
-    <row r="531" ht="14.25" customHeight="1"/>
-    <row r="532" ht="14.25" customHeight="1"/>
-    <row r="533" ht="14.25" customHeight="1"/>
-    <row r="534" ht="14.25" customHeight="1"/>
-    <row r="535" ht="14.25" customHeight="1"/>
-    <row r="536" ht="14.25" customHeight="1"/>
-    <row r="537" ht="14.25" customHeight="1"/>
-    <row r="538" ht="14.25" customHeight="1"/>
-    <row r="539" ht="14.25" customHeight="1"/>
-    <row r="540" ht="14.25" customHeight="1"/>
-    <row r="541" ht="14.25" customHeight="1"/>
-    <row r="542" ht="14.25" customHeight="1"/>
-    <row r="543" ht="14.25" customHeight="1"/>
-    <row r="544" ht="14.25" customHeight="1"/>
-    <row r="545" ht="14.25" customHeight="1"/>
-    <row r="546" ht="14.25" customHeight="1"/>
-    <row r="547" ht="14.25" customHeight="1"/>
-    <row r="548" ht="14.25" customHeight="1"/>
-    <row r="549" ht="14.25" customHeight="1"/>
-    <row r="550" ht="14.25" customHeight="1"/>
-    <row r="551" ht="14.25" customHeight="1"/>
-    <row r="552" ht="14.25" customHeight="1"/>
-    <row r="553" ht="14.25" customHeight="1"/>
-    <row r="554" ht="14.25" customHeight="1"/>
-    <row r="555" ht="14.25" customHeight="1"/>
-    <row r="556" ht="14.25" customHeight="1"/>
-    <row r="557" ht="14.25" customHeight="1"/>
-    <row r="558" ht="14.25" customHeight="1"/>
-    <row r="559" ht="14.25" customHeight="1"/>
-    <row r="560" ht="14.25" customHeight="1"/>
-    <row r="561" ht="14.25" customHeight="1"/>
-    <row r="562" ht="14.25" customHeight="1"/>
-    <row r="563" ht="14.25" customHeight="1"/>
-    <row r="564" ht="14.25" customHeight="1"/>
-    <row r="565" ht="14.25" customHeight="1"/>
-    <row r="566" ht="14.25" customHeight="1"/>
-    <row r="567" ht="14.25" customHeight="1"/>
-    <row r="568" ht="14.25" customHeight="1"/>
-    <row r="569" ht="14.25" customHeight="1"/>
-    <row r="570" ht="14.25" customHeight="1"/>
-    <row r="571" ht="14.25" customHeight="1"/>
-    <row r="572" ht="14.25" customHeight="1"/>
-    <row r="573" ht="14.25" customHeight="1"/>
-    <row r="574" ht="14.25" customHeight="1"/>
-    <row r="575" ht="14.25" customHeight="1"/>
-    <row r="576" ht="14.25" customHeight="1"/>
-    <row r="577" ht="14.25" customHeight="1"/>
-    <row r="578" ht="14.25" customHeight="1"/>
-    <row r="579" ht="14.25" customHeight="1"/>
-    <row r="580" ht="14.25" customHeight="1"/>
-    <row r="581" ht="14.25" customHeight="1"/>
-    <row r="582" ht="14.25" customHeight="1"/>
-    <row r="583" ht="14.25" customHeight="1"/>
-    <row r="584" ht="14.25" customHeight="1"/>
-    <row r="585" ht="14.25" customHeight="1"/>
-    <row r="586" ht="14.25" customHeight="1"/>
-    <row r="587" ht="14.25" customHeight="1"/>
-    <row r="588" ht="14.25" customHeight="1"/>
-    <row r="589" ht="14.25" customHeight="1"/>
-    <row r="590" ht="14.25" customHeight="1"/>
-    <row r="591" ht="14.25" customHeight="1"/>
-    <row r="592" ht="14.25" customHeight="1"/>
-    <row r="593" ht="14.25" customHeight="1"/>
-    <row r="594" ht="14.25" customHeight="1"/>
-    <row r="595" ht="14.25" customHeight="1"/>
-    <row r="596" ht="14.25" customHeight="1"/>
-    <row r="597" ht="14.25" customHeight="1"/>
-    <row r="598" ht="14.25" customHeight="1"/>
-    <row r="599" ht="14.25" customHeight="1"/>
-    <row r="600" ht="14.25" customHeight="1"/>
-    <row r="601" ht="14.25" customHeight="1"/>
-    <row r="602" ht="14.25" customHeight="1"/>
-    <row r="603" ht="14.25" customHeight="1"/>
-    <row r="604" ht="14.25" customHeight="1"/>
-    <row r="605" ht="14.25" customHeight="1"/>
-    <row r="606" ht="14.25" customHeight="1"/>
-    <row r="607" ht="14.25" customHeight="1"/>
-    <row r="608" ht="14.25" customHeight="1"/>
-    <row r="609" ht="14.25" customHeight="1"/>
-    <row r="610" ht="14.25" customHeight="1"/>
-    <row r="611" ht="14.25" customHeight="1"/>
-    <row r="612" ht="14.25" customHeight="1"/>
-    <row r="613" ht="14.25" customHeight="1"/>
-    <row r="614" ht="14.25" customHeight="1"/>
-    <row r="615" ht="14.25" customHeight="1"/>
-    <row r="616" ht="14.25" customHeight="1"/>
-    <row r="617" ht="14.25" customHeight="1"/>
-    <row r="618" ht="14.25" customHeight="1"/>
-    <row r="619" ht="14.25" customHeight="1"/>
-    <row r="620" ht="14.25" customHeight="1"/>
-    <row r="621" ht="14.25" customHeight="1"/>
-    <row r="622" ht="14.25" customHeight="1"/>
-    <row r="623" ht="14.25" customHeight="1"/>
-    <row r="624" ht="14.25" customHeight="1"/>
-    <row r="625" ht="14.25" customHeight="1"/>
-    <row r="626" ht="14.25" customHeight="1"/>
-    <row r="627" ht="14.25" customHeight="1"/>
-    <row r="628" ht="14.25" customHeight="1"/>
-    <row r="629" ht="14.25" customHeight="1"/>
-    <row r="630" ht="14.25" customHeight="1"/>
-    <row r="631" ht="14.25" customHeight="1"/>
-    <row r="632" ht="14.25" customHeight="1"/>
-    <row r="633" ht="14.25" customHeight="1"/>
-    <row r="634" ht="14.25" customHeight="1"/>
-    <row r="635" ht="14.25" customHeight="1"/>
-    <row r="636" ht="14.25" customHeight="1"/>
-    <row r="637" ht="14.25" customHeight="1"/>
-    <row r="638" ht="14.25" customHeight="1"/>
-    <row r="639" ht="14.25" customHeight="1"/>
-    <row r="640" ht="14.25" customHeight="1"/>
-    <row r="641" ht="14.25" customHeight="1"/>
-    <row r="642" ht="14.25" customHeight="1"/>
-    <row r="643" ht="14.25" customHeight="1"/>
-    <row r="644" ht="14.25" customHeight="1"/>
-    <row r="645" ht="14.25" customHeight="1"/>
-    <row r="646" ht="14.25" customHeight="1"/>
-    <row r="647" ht="14.25" customHeight="1"/>
-    <row r="648" ht="14.25" customHeight="1"/>
-    <row r="649" ht="14.25" customHeight="1"/>
-    <row r="650" ht="14.25" customHeight="1"/>
-    <row r="651" ht="14.25" customHeight="1"/>
-    <row r="652" ht="14.25" customHeight="1"/>
-    <row r="653" ht="14.25" customHeight="1"/>
-    <row r="654" ht="14.25" customHeight="1"/>
-    <row r="655" ht="14.25" customHeight="1"/>
-    <row r="656" ht="14.25" customHeight="1"/>
-    <row r="657" ht="14.25" customHeight="1"/>
-    <row r="658" ht="14.25" customHeight="1"/>
-    <row r="659" ht="14.25" customHeight="1"/>
-    <row r="660" ht="14.25" customHeight="1"/>
-    <row r="661" ht="14.25" customHeight="1"/>
-    <row r="662" ht="14.25" customHeight="1"/>
-    <row r="663" ht="14.25" customHeight="1"/>
-    <row r="664" ht="14.25" customHeight="1"/>
-    <row r="665" ht="14.25" customHeight="1"/>
-    <row r="666" ht="14.25" customHeight="1"/>
-    <row r="667" ht="14.25" customHeight="1"/>
-    <row r="668" ht="14.25" customHeight="1"/>
-    <row r="669" ht="14.25" customHeight="1"/>
-    <row r="670" ht="14.25" customHeight="1"/>
-    <row r="671" ht="14.25" customHeight="1"/>
-    <row r="672" ht="14.25" customHeight="1"/>
-    <row r="673" ht="14.25" customHeight="1"/>
-    <row r="674" ht="14.25" customHeight="1"/>
-    <row r="675" ht="14.25" customHeight="1"/>
-    <row r="676" ht="14.25" customHeight="1"/>
-    <row r="677" ht="14.25" customHeight="1"/>
-    <row r="678" ht="14.25" customHeight="1"/>
-    <row r="679" ht="14.25" customHeight="1"/>
-    <row r="680" ht="14.25" customHeight="1"/>
-    <row r="681" ht="14.25" customHeight="1"/>
-    <row r="682" ht="14.25" customHeight="1"/>
-    <row r="683" ht="14.25" customHeight="1"/>
-    <row r="684" ht="14.25" customHeight="1"/>
-    <row r="685" ht="14.25" customHeight="1"/>
-    <row r="686" ht="14.25" customHeight="1"/>
-    <row r="687" ht="14.25" customHeight="1"/>
-    <row r="688" ht="14.25" customHeight="1"/>
-    <row r="689" ht="14.25" customHeight="1"/>
-    <row r="690" ht="14.25" customHeight="1"/>
-    <row r="691" ht="14.25" customHeight="1"/>
-    <row r="692" ht="14.25" customHeight="1"/>
-    <row r="693" ht="14.25" customHeight="1"/>
-    <row r="694" ht="14.25" customHeight="1"/>
-    <row r="695" ht="14.25" customHeight="1"/>
-    <row r="696" ht="14.25" customHeight="1"/>
-    <row r="697" ht="14.25" customHeight="1"/>
-    <row r="698" ht="14.25" customHeight="1"/>
-    <row r="699" ht="14.25" customHeight="1"/>
-    <row r="700" ht="14.25" customHeight="1"/>
-    <row r="701" ht="14.25" customHeight="1"/>
-    <row r="702" ht="14.25" customHeight="1"/>
-    <row r="703" ht="14.25" customHeight="1"/>
-    <row r="704" ht="14.25" customHeight="1"/>
-    <row r="705" ht="14.25" customHeight="1"/>
-    <row r="706" ht="14.25" customHeight="1"/>
-    <row r="707" ht="14.25" customHeight="1"/>
-    <row r="708" ht="14.25" customHeight="1"/>
-    <row r="709" ht="14.25" customHeight="1"/>
-    <row r="710" ht="14.25" customHeight="1"/>
-    <row r="711" ht="14.25" customHeight="1"/>
-    <row r="712" ht="14.25" customHeight="1"/>
-    <row r="713" ht="14.25" customHeight="1"/>
-    <row r="714" ht="14.25" customHeight="1"/>
-    <row r="715" ht="14.25" customHeight="1"/>
-    <row r="716" ht="14.25" customHeight="1"/>
-    <row r="717" ht="14.25" customHeight="1"/>
-    <row r="718" ht="14.25" customHeight="1"/>
-    <row r="719" ht="14.25" customHeight="1"/>
-    <row r="720" ht="14.25" customHeight="1"/>
-    <row r="721" ht="14.25" customHeight="1"/>
-    <row r="722" ht="14.25" customHeight="1"/>
-    <row r="723" ht="14.25" customHeight="1"/>
-    <row r="724" ht="14.25" customHeight="1"/>
-    <row r="725" ht="14.25" customHeight="1"/>
-    <row r="726" ht="14.25" customHeight="1"/>
-    <row r="727" ht="14.25" customHeight="1"/>
-    <row r="728" ht="14.25" customHeight="1"/>
-    <row r="729" ht="14.25" customHeight="1"/>
-    <row r="730" ht="14.25" customHeight="1"/>
-    <row r="731" ht="14.25" customHeight="1"/>
-    <row r="732" ht="14.25" customHeight="1"/>
-    <row r="733" ht="14.25" customHeight="1"/>
-    <row r="734" ht="14.25" customHeight="1"/>
-    <row r="735" ht="14.25" customHeight="1"/>
-    <row r="736" ht="14.25" customHeight="1"/>
-    <row r="737" ht="14.25" customHeight="1"/>
-    <row r="738" ht="14.25" customHeight="1"/>
-    <row r="739" ht="14.25" customHeight="1"/>
-    <row r="740" ht="14.25" customHeight="1"/>
-    <row r="741" ht="14.25" customHeight="1"/>
-    <row r="742" ht="14.25" customHeight="1"/>
-    <row r="743" ht="14.25" customHeight="1"/>
-    <row r="744" ht="14.25" customHeight="1"/>
-    <row r="745" ht="14.25" customHeight="1"/>
-    <row r="746" ht="14.25" customHeight="1"/>
-    <row r="747" ht="14.25" customHeight="1"/>
-    <row r="748" ht="14.25" customHeight="1"/>
-    <row r="749" ht="14.25" customHeight="1"/>
-    <row r="750" ht="14.25" customHeight="1"/>
-    <row r="751" ht="14.25" customHeight="1"/>
-    <row r="752" ht="14.25" customHeight="1"/>
-    <row r="753" ht="14.25" customHeight="1"/>
-    <row r="754" ht="14.25" customHeight="1"/>
-    <row r="755" ht="14.25" customHeight="1"/>
-    <row r="756" ht="14.25" customHeight="1"/>
-    <row r="757" ht="14.25" customHeight="1"/>
-    <row r="758" ht="14.25" customHeight="1"/>
-    <row r="759" ht="14.25" customHeight="1"/>
-    <row r="760" ht="14.25" customHeight="1"/>
-    <row r="761" ht="14.25" customHeight="1"/>
-    <row r="762" ht="14.25" customHeight="1"/>
-    <row r="763" ht="14.25" customHeight="1"/>
-    <row r="764" ht="14.25" customHeight="1"/>
-    <row r="765" ht="14.25" customHeight="1"/>
-    <row r="766" ht="14.25" customHeight="1"/>
-    <row r="767" ht="14.25" customHeight="1"/>
-    <row r="768" ht="14.25" customHeight="1"/>
-    <row r="769" ht="14.25" customHeight="1"/>
-    <row r="770" ht="14.25" customHeight="1"/>
-    <row r="771" ht="14.25" customHeight="1"/>
-    <row r="772" ht="14.25" customHeight="1"/>
-    <row r="773" ht="14.25" customHeight="1"/>
-    <row r="774" ht="14.25" customHeight="1"/>
-    <row r="775" ht="14.25" customHeight="1"/>
-    <row r="776" ht="14.25" customHeight="1"/>
-    <row r="777" ht="14.25" customHeight="1"/>
-    <row r="778" ht="14.25" customHeight="1"/>
-    <row r="779" ht="14.25" customHeight="1"/>
-    <row r="780" ht="14.25" customHeight="1"/>
-    <row r="781" ht="14.25" customHeight="1"/>
-    <row r="782" ht="14.25" customHeight="1"/>
-    <row r="783" ht="14.25" customHeight="1"/>
-    <row r="784" ht="14.25" customHeight="1"/>
-    <row r="785" ht="14.25" customHeight="1"/>
-    <row r="786" ht="14.25" customHeight="1"/>
-    <row r="787" ht="14.25" customHeight="1"/>
-    <row r="788" ht="14.25" customHeight="1"/>
-    <row r="789" ht="14.25" customHeight="1"/>
-    <row r="790" ht="14.25" customHeight="1"/>
-    <row r="791" ht="14.25" customHeight="1"/>
-    <row r="792" ht="14.25" customHeight="1"/>
-    <row r="793" ht="14.25" customHeight="1"/>
-    <row r="794" ht="14.25" customHeight="1"/>
-    <row r="795" ht="14.25" customHeight="1"/>
-    <row r="796" ht="14.25" customHeight="1"/>
-    <row r="797" ht="14.25" customHeight="1"/>
-    <row r="798" ht="14.25" customHeight="1"/>
-    <row r="799" ht="14.25" customHeight="1"/>
-    <row r="800" ht="14.25" customHeight="1"/>
-    <row r="801" ht="14.25" customHeight="1"/>
-    <row r="802" ht="14.25" customHeight="1"/>
-    <row r="803" ht="14.25" customHeight="1"/>
-    <row r="804" ht="14.25" customHeight="1"/>
-    <row r="805" ht="14.25" customHeight="1"/>
-    <row r="806" ht="14.25" customHeight="1"/>
-    <row r="807" ht="14.25" customHeight="1"/>
-    <row r="808" ht="14.25" customHeight="1"/>
-    <row r="809" ht="14.25" customHeight="1"/>
-    <row r="810" ht="14.25" customHeight="1"/>
-    <row r="811" ht="14.25" customHeight="1"/>
-    <row r="812" ht="14.25" customHeight="1"/>
-    <row r="813" ht="14.25" customHeight="1"/>
-    <row r="814" ht="14.25" customHeight="1"/>
-    <row r="815" ht="14.25" customHeight="1"/>
-    <row r="816" ht="14.25" customHeight="1"/>
-    <row r="817" ht="14.25" customHeight="1"/>
-    <row r="818" ht="14.25" customHeight="1"/>
-    <row r="819" ht="14.25" customHeight="1"/>
-    <row r="820" ht="14.25" customHeight="1"/>
-    <row r="821" ht="14.25" customHeight="1"/>
-    <row r="822" ht="14.25" customHeight="1"/>
-    <row r="823" ht="14.25" customHeight="1"/>
-    <row r="824" ht="14.25" customHeight="1"/>
-    <row r="825" ht="14.25" customHeight="1"/>
-    <row r="826" ht="14.25" customHeight="1"/>
-    <row r="827" ht="14.25" customHeight="1"/>
-    <row r="828" ht="14.25" customHeight="1"/>
-    <row r="829" ht="14.25" customHeight="1"/>
-    <row r="830" ht="14.25" customHeight="1"/>
-    <row r="831" ht="14.25" customHeight="1"/>
-    <row r="832" ht="14.25" customHeight="1"/>
-    <row r="833" ht="14.25" customHeight="1"/>
-    <row r="834" ht="14.25" customHeight="1"/>
-    <row r="835" ht="14.25" customHeight="1"/>
-    <row r="836" ht="14.25" customHeight="1"/>
-    <row r="837" ht="14.25" customHeight="1"/>
-    <row r="838" ht="14.25" customHeight="1"/>
-    <row r="839" ht="14.25" customHeight="1"/>
-    <row r="840" ht="14.25" customHeight="1"/>
-    <row r="841" ht="14.25" customHeight="1"/>
-    <row r="842" ht="14.25" customHeight="1"/>
-    <row r="843" ht="14.25" customHeight="1"/>
-    <row r="844" ht="14.25" customHeight="1"/>
-    <row r="845" ht="14.25" customHeight="1"/>
-    <row r="846" ht="14.25" customHeight="1"/>
-    <row r="847" ht="14.25" customHeight="1"/>
-    <row r="848" ht="14.25" customHeight="1"/>
-    <row r="849" ht="14.25" customHeight="1"/>
-    <row r="850" ht="14.25" customHeight="1"/>
-    <row r="851" ht="14.25" customHeight="1"/>
-    <row r="852" ht="14.25" customHeight="1"/>
-    <row r="853" ht="14.25" customHeight="1"/>
-    <row r="854" ht="14.25" customHeight="1"/>
-    <row r="855" ht="14.25" customHeight="1"/>
-    <row r="856" ht="14.25" customHeight="1"/>
-    <row r="857" ht="14.25" customHeight="1"/>
-    <row r="858" ht="14.25" customHeight="1"/>
-    <row r="859" ht="14.25" customHeight="1"/>
-    <row r="860" ht="14.25" customHeight="1"/>
-    <row r="861" ht="14.25" customHeight="1"/>
-    <row r="862" ht="14.25" customHeight="1"/>
-    <row r="863" ht="14.25" customHeight="1"/>
-    <row r="864" ht="14.25" customHeight="1"/>
-    <row r="865" ht="14.25" customHeight="1"/>
-    <row r="866" ht="14.25" customHeight="1"/>
-    <row r="867" ht="14.25" customHeight="1"/>
-    <row r="868" ht="14.25" customHeight="1"/>
-    <row r="869" ht="14.25" customHeight="1"/>
-    <row r="870" ht="14.25" customHeight="1"/>
-    <row r="871" ht="14.25" customHeight="1"/>
-    <row r="872" ht="14.25" customHeight="1"/>
-    <row r="873" ht="14.25" customHeight="1"/>
-    <row r="874" ht="14.25" customHeight="1"/>
-    <row r="875" ht="14.25" customHeight="1"/>
-    <row r="876" ht="14.25" customHeight="1"/>
-    <row r="877" ht="14.25" customHeight="1"/>
-    <row r="878" ht="14.25" customHeight="1"/>
-    <row r="879" ht="14.25" customHeight="1"/>
-    <row r="880" ht="14.25" customHeight="1"/>
-    <row r="881" ht="14.25" customHeight="1"/>
-    <row r="882" ht="14.25" customHeight="1"/>
-    <row r="883" ht="14.25" customHeight="1"/>
-    <row r="884" ht="14.25" customHeight="1"/>
-    <row r="885" ht="14.25" customHeight="1"/>
-    <row r="886" ht="14.25" customHeight="1"/>
-    <row r="887" ht="14.25" customHeight="1"/>
-    <row r="888" ht="14.25" customHeight="1"/>
-    <row r="889" ht="14.25" customHeight="1"/>
-    <row r="890" ht="14.25" customHeight="1"/>
-    <row r="891" ht="14.25" customHeight="1"/>
-    <row r="892" ht="14.25" customHeight="1"/>
-    <row r="893" ht="14.25" customHeight="1"/>
-    <row r="894" ht="14.25" customHeight="1"/>
-    <row r="895" ht="14.25" customHeight="1"/>
-    <row r="896" ht="14.25" customHeight="1"/>
-    <row r="897" ht="14.25" customHeight="1"/>
-    <row r="898" ht="14.25" customHeight="1"/>
-    <row r="899" ht="14.25" customHeight="1"/>
-    <row r="900" ht="14.25" customHeight="1"/>
-    <row r="901" ht="14.25" customHeight="1"/>
-    <row r="902" ht="14.25" customHeight="1"/>
-    <row r="903" ht="14.25" customHeight="1"/>
-    <row r="904" ht="14.25" customHeight="1"/>
-    <row r="905" ht="14.25" customHeight="1"/>
-    <row r="906" ht="14.25" customHeight="1"/>
-    <row r="907" ht="14.25" customHeight="1"/>
-    <row r="908" ht="14.25" customHeight="1"/>
-    <row r="909" ht="14.25" customHeight="1"/>
-    <row r="910" ht="14.25" customHeight="1"/>
-    <row r="911" ht="14.25" customHeight="1"/>
-    <row r="912" ht="14.25" customHeight="1"/>
-    <row r="913" ht="14.25" customHeight="1"/>
-    <row r="914" ht="14.25" customHeight="1"/>
-    <row r="915" ht="14.25" customHeight="1"/>
-    <row r="916" ht="14.25" customHeight="1"/>
-    <row r="917" ht="14.25" customHeight="1"/>
-    <row r="918" ht="14.25" customHeight="1"/>
-    <row r="919" ht="14.25" customHeight="1"/>
-    <row r="920" ht="14.25" customHeight="1"/>
-    <row r="921" ht="14.25" customHeight="1"/>
-    <row r="922" ht="14.25" customHeight="1"/>
-    <row r="923" ht="14.25" customHeight="1"/>
-    <row r="924" ht="14.25" customHeight="1"/>
-    <row r="925" ht="14.25" customHeight="1"/>
-    <row r="926" ht="14.25" customHeight="1"/>
-    <row r="927" ht="14.25" customHeight="1"/>
-    <row r="928" ht="14.25" customHeight="1"/>
-    <row r="929" ht="14.25" customHeight="1"/>
-    <row r="930" ht="14.25" customHeight="1"/>
-    <row r="931" ht="14.25" customHeight="1"/>
-    <row r="932" ht="14.25" customHeight="1"/>
-    <row r="933" ht="14.25" customHeight="1"/>
-    <row r="934" ht="14.25" customHeight="1"/>
-    <row r="935" ht="14.25" customHeight="1"/>
-    <row r="936" ht="14.25" customHeight="1"/>
-    <row r="937" ht="14.25" customHeight="1"/>
-    <row r="938" ht="14.25" customHeight="1"/>
-    <row r="939" ht="14.25" customHeight="1"/>
-    <row r="940" ht="14.25" customHeight="1"/>
-    <row r="941" ht="14.25" customHeight="1"/>
-    <row r="942" ht="14.25" customHeight="1"/>
-    <row r="943" ht="14.25" customHeight="1"/>
-    <row r="944" ht="14.25" customHeight="1"/>
-    <row r="945" ht="14.25" customHeight="1"/>
-    <row r="946" ht="14.25" customHeight="1"/>
-    <row r="947" ht="14.25" customHeight="1"/>
-    <row r="948" ht="14.25" customHeight="1"/>
-    <row r="949" ht="14.25" customHeight="1"/>
-    <row r="950" ht="14.25" customHeight="1"/>
-    <row r="951" ht="14.25" customHeight="1"/>
-    <row r="952" ht="14.25" customHeight="1"/>
-    <row r="953" ht="14.25" customHeight="1"/>
-    <row r="954" ht="14.25" customHeight="1"/>
-    <row r="955" ht="14.25" customHeight="1"/>
-    <row r="956" ht="14.25" customHeight="1"/>
-    <row r="957" ht="14.25" customHeight="1"/>
-    <row r="958" ht="14.25" customHeight="1"/>
-    <row r="959" ht="14.25" customHeight="1"/>
-    <row r="960" ht="14.25" customHeight="1"/>
-    <row r="961" ht="14.25" customHeight="1"/>
-    <row r="962" ht="14.25" customHeight="1"/>
-    <row r="963" ht="14.25" customHeight="1"/>
-    <row r="964" ht="14.25" customHeight="1"/>
-    <row r="965" ht="14.25" customHeight="1"/>
-    <row r="966" ht="14.25" customHeight="1"/>
-    <row r="967" ht="14.25" customHeight="1"/>
-    <row r="968" ht="14.25" customHeight="1"/>
-    <row r="969" ht="14.25" customHeight="1"/>
-    <row r="970" ht="14.25" customHeight="1"/>
-    <row r="971" ht="14.25" customHeight="1"/>
-    <row r="972" ht="14.25" customHeight="1"/>
-    <row r="973" ht="14.25" customHeight="1"/>
-    <row r="974" ht="14.25" customHeight="1"/>
-    <row r="975" ht="14.25" customHeight="1"/>
-    <row r="976" ht="14.25" customHeight="1"/>
-    <row r="977" ht="14.25" customHeight="1"/>
-    <row r="978" ht="14.25" customHeight="1"/>
-    <row r="979" ht="14.25" customHeight="1"/>
-    <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/immigration_records.xlsx
+++ b/Data/immigration_records.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Documents\UiPath\Final\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CAMTU\UEL\HK1_2526\Final_RPA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258A07EB-C120-407B-8358-F5B30C70DDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD006C82-EDF7-4491-9B1F-FC4D818A460D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,9 +75,6 @@
     <t>25/07/2017</t>
   </si>
   <si>
-    <t>23/07/2027</t>
-  </si>
-  <si>
     <t>Work Permit</t>
   </si>
   <si>
@@ -1435,6 +1432,9 @@
   </si>
   <si>
     <t>02/09/2026</t>
+  </si>
+  <si>
+    <t>23/07/2024</t>
   </si>
 </sst>
 </file>
@@ -1739,7 +1739,7 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1800,10 +1800,10 @@
         <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="I2" s="3">
         <v>44476</v>
@@ -1814,28 +1814,28 @@
     </row>
     <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="I3" s="5">
         <v>43962</v>
@@ -1846,28 +1846,28 @@
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4" s="5">
         <v>43966</v>
@@ -1878,28 +1878,28 @@
     </row>
     <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I5" s="6">
         <v>44881</v>
@@ -1910,28 +1910,28 @@
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="H6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I6" s="5">
         <v>43901</v>
@@ -1942,28 +1942,28 @@
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="H7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I7" s="5">
         <v>45131</v>
@@ -1974,28 +1974,28 @@
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="H8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I8" s="5">
         <v>44641</v>
@@ -2006,28 +2006,28 @@
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="H9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9" s="5">
         <v>44470</v>
@@ -2038,28 +2038,28 @@
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="I10" s="5">
         <v>44601</v>
@@ -2070,28 +2070,28 @@
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="H11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I11" s="5">
         <v>45048</v>
@@ -2102,28 +2102,28 @@
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="H12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I12" s="5">
         <v>44866</v>
@@ -2134,28 +2134,28 @@
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="H13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I13" s="5">
         <v>44600</v>
@@ -2166,28 +2166,28 @@
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="H14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I14" s="5">
         <v>44758</v>
@@ -2198,28 +2198,28 @@
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="H15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I15" s="5">
         <v>45202</v>
@@ -2230,28 +2230,28 @@
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="H16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I16" s="5">
         <v>45261</v>
@@ -2262,28 +2262,28 @@
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="C17" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="H17" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I17" s="5">
         <v>43851</v>
@@ -2294,28 +2294,28 @@
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="H18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I18" s="5">
         <v>44286</v>
@@ -2326,28 +2326,28 @@
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="H19" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I19" s="5">
         <v>44819</v>
@@ -2358,28 +2358,28 @@
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="H20" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I20" s="5">
         <v>45196</v>
@@ -2390,28 +2390,28 @@
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="C21" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="H21" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I21" s="5">
         <v>44030</v>
@@ -2422,28 +2422,28 @@
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="C22" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="H22" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I22" s="5">
         <v>44934</v>
@@ -2454,28 +2454,28 @@
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="C23" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="H23" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I23" s="5">
         <v>44022</v>
@@ -2486,28 +2486,28 @@
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="C24" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="H24" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I24" s="5">
         <v>44618</v>
@@ -2518,28 +2518,28 @@
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="C25" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="H25" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I25" s="5">
         <v>44016</v>
@@ -2550,28 +2550,28 @@
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="C26" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="H26" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I26" s="5">
         <v>43943</v>
@@ -2582,28 +2582,28 @@
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="C27" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="H27" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I27" s="5">
         <v>44255</v>
@@ -2614,28 +2614,28 @@
     </row>
     <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="C28" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="H28" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I28" s="6">
         <v>44880</v>
@@ -2646,28 +2646,28 @@
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="C29" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="H29" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I29" s="5">
         <v>44871</v>
@@ -2678,28 +2678,28 @@
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="C30" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="H30" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I30" s="5">
         <v>43907</v>
@@ -2710,28 +2710,28 @@
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="C31" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>193</v>
-      </c>
       <c r="H31" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I31" s="5">
         <v>43949</v>
@@ -2742,28 +2742,28 @@
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="C32" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="E32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>199</v>
-      </c>
       <c r="H32" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I32" s="6">
         <v>44544</v>
@@ -2774,28 +2774,28 @@
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="C33" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="E33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>205</v>
-      </c>
       <c r="H33" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I33" s="5">
         <v>44139</v>
@@ -2806,28 +2806,28 @@
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="C34" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="E34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>211</v>
-      </c>
       <c r="H34" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I34" s="5">
         <v>45031</v>
@@ -2838,28 +2838,28 @@
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="C35" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="E35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>217</v>
-      </c>
       <c r="H35" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I35" s="5">
         <v>45112</v>
@@ -2870,28 +2870,28 @@
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="C36" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="E36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>223</v>
-      </c>
       <c r="H36" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I36" s="5">
         <v>44805</v>
@@ -2902,28 +2902,28 @@
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="C37" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="E37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>229</v>
-      </c>
       <c r="H37" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I37" s="5">
         <v>44434</v>
@@ -2934,28 +2934,28 @@
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="C38" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="E38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>235</v>
-      </c>
       <c r="H38" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I38" s="5">
         <v>44681</v>
@@ -2966,28 +2966,28 @@
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="C39" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="E39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>241</v>
-      </c>
       <c r="H39" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I39" s="5">
         <v>44353</v>
@@ -2998,28 +2998,28 @@
     </row>
     <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="C40" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="E40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>247</v>
-      </c>
       <c r="H40" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I40" s="5">
         <v>44836</v>
@@ -3030,28 +3030,28 @@
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="C41" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="E41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>253</v>
-      </c>
       <c r="H41" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I41" s="5">
         <v>43856</v>
@@ -3062,28 +3062,28 @@
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="C42" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>259</v>
-      </c>
       <c r="H42" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I42" s="5">
         <v>44833</v>
@@ -3094,28 +3094,28 @@
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="C43" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>265</v>
-      </c>
       <c r="H43" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I43" s="5">
         <v>44263</v>
@@ -3126,28 +3126,28 @@
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="C44" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="E44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="2" t="s">
+      <c r="G44" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="H44" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I44" s="5">
         <v>43923</v>
@@ -3158,28 +3158,28 @@
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="C45" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="E45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" s="2" t="s">
+      <c r="G45" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>277</v>
-      </c>
       <c r="H45" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I45" s="6">
         <v>44125</v>
@@ -3190,28 +3190,28 @@
     </row>
     <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="C46" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="E46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="2" t="s">
+      <c r="G46" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>283</v>
-      </c>
       <c r="H46" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I46" s="5">
         <v>43974</v>
@@ -3222,28 +3222,28 @@
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="C47" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="E47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" s="2" t="s">
+      <c r="G47" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>289</v>
-      </c>
       <c r="H47" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I47" s="5">
         <v>44904</v>
@@ -3254,28 +3254,28 @@
     </row>
     <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="C48" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="E48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" s="2" t="s">
+      <c r="G48" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>295</v>
-      </c>
       <c r="H48" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I48" s="5">
         <v>44578</v>
@@ -3286,28 +3286,28 @@
     </row>
     <row r="49" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="C49" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="E49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" s="2" t="s">
+      <c r="G49" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>301</v>
-      </c>
       <c r="H49" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I49" s="5">
         <v>44633</v>
@@ -3318,28 +3318,28 @@
     </row>
     <row r="50" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="C50" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="E50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" s="2" t="s">
+      <c r="G50" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>307</v>
-      </c>
       <c r="H50" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I50" s="5">
         <v>43955</v>
@@ -3350,28 +3350,28 @@
     </row>
     <row r="51" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="C51" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="E51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" s="2" t="s">
+      <c r="G51" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>313</v>
-      </c>
       <c r="H51" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I51" s="6">
         <v>44183</v>
@@ -3382,28 +3382,28 @@
     </row>
     <row r="52" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="C52" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="E52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" s="2" t="s">
+      <c r="G52" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="G52" s="2" t="s">
-        <v>319</v>
-      </c>
       <c r="H52" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I52" s="5">
         <v>44936</v>
@@ -3414,28 +3414,28 @@
     </row>
     <row r="53" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="C53" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="E53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="2" t="s">
+      <c r="G53" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="G53" s="2" t="s">
-        <v>325</v>
-      </c>
       <c r="H53" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I53" s="5">
         <v>44722</v>
@@ -3446,28 +3446,28 @@
     </row>
     <row r="54" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="C54" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="E54" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F54" s="2" t="s">
+      <c r="G54" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="G54" s="2" t="s">
-        <v>331</v>
-      </c>
       <c r="H54" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I54" s="5">
         <v>43884</v>
@@ -3478,28 +3478,28 @@
     </row>
     <row r="55" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="C55" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="E55" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" s="2" t="s">
+      <c r="G55" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="G55" s="2" t="s">
-        <v>337</v>
-      </c>
       <c r="H55" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I55" s="5">
         <v>44797</v>
@@ -3510,28 +3510,28 @@
     </row>
     <row r="56" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="C56" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="E56" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F56" s="2" t="s">
+      <c r="G56" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="G56" s="2" t="s">
-        <v>343</v>
-      </c>
       <c r="H56" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I56" s="5">
         <v>43845</v>
@@ -3542,28 +3542,28 @@
     </row>
     <row r="57" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="C57" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="E57" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F57" s="2" t="s">
+      <c r="G57" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="G57" s="2" t="s">
-        <v>349</v>
-      </c>
       <c r="H57" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I57" s="5">
         <v>44329</v>
@@ -3574,28 +3574,28 @@
     </row>
     <row r="58" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="C58" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="E58" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F58" s="2" t="s">
+      <c r="G58" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="G58" s="2" t="s">
-        <v>355</v>
-      </c>
       <c r="H58" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I58" s="5">
         <v>44425</v>
@@ -3606,28 +3606,28 @@
     </row>
     <row r="59" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="C59" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="E59" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F59" s="2" t="s">
+      <c r="G59" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="G59" s="2" t="s">
-        <v>361</v>
-      </c>
       <c r="H59" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I59" s="5">
         <v>44206</v>
@@ -3638,28 +3638,28 @@
     </row>
     <row r="60" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="C60" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="E60" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F60" s="2" t="s">
+      <c r="G60" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="G60" s="2" t="s">
-        <v>367</v>
-      </c>
       <c r="H60" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I60" s="6">
         <v>45277</v>
@@ -3670,28 +3670,28 @@
     </row>
     <row r="61" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="C61" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="E61" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F61" s="2" t="s">
+      <c r="G61" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="G61" s="2" t="s">
-        <v>373</v>
-      </c>
       <c r="H61" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I61" s="6">
         <v>45228</v>
@@ -3702,28 +3702,28 @@
     </row>
     <row r="62" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="C62" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="E62" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F62" s="2" t="s">
+      <c r="G62" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="G62" s="2" t="s">
-        <v>379</v>
-      </c>
       <c r="H62" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I62" s="5">
         <v>45234</v>
@@ -3734,28 +3734,28 @@
     </row>
     <row r="63" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="C63" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="E63" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F63" s="2" t="s">
+      <c r="G63" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="G63" s="2" t="s">
-        <v>385</v>
-      </c>
       <c r="H63" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I63" s="5">
         <v>45022</v>
@@ -3766,28 +3766,28 @@
     </row>
     <row r="64" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="C64" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="E64" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F64" s="2" t="s">
+      <c r="G64" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="G64" s="2" t="s">
-        <v>391</v>
-      </c>
       <c r="H64" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I64" s="5">
         <v>44574</v>
@@ -3798,28 +3798,28 @@
     </row>
     <row r="65" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="C65" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="D65" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="E65" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F65" s="2" t="s">
+      <c r="G65" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="G65" s="2" t="s">
-        <v>397</v>
-      </c>
       <c r="H65" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I65" s="5">
         <v>44801</v>
@@ -3830,28 +3830,28 @@
     </row>
     <row r="66" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="C66" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="E66" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" s="2" t="s">
+      <c r="G66" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="G66" s="2" t="s">
-        <v>403</v>
-      </c>
       <c r="H66" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I66" s="5">
         <v>44280</v>
@@ -3862,28 +3862,28 @@
     </row>
     <row r="67" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="C67" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="E67" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" s="2" t="s">
+      <c r="G67" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="G67" s="2" t="s">
-        <v>409</v>
-      </c>
       <c r="H67" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I67" s="5">
         <v>44005</v>
@@ -3894,28 +3894,28 @@
     </row>
     <row r="68" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="C68" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="E68" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68" s="2" t="s">
+      <c r="G68" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="G68" s="2" t="s">
-        <v>415</v>
-      </c>
       <c r="H68" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I68" s="5">
         <v>44982</v>
@@ -3926,28 +3926,28 @@
     </row>
     <row r="69" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="C69" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="E69" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F69" s="2" t="s">
+      <c r="G69" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="G69" s="2" t="s">
-        <v>421</v>
-      </c>
       <c r="H69" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I69" s="5">
         <v>44655</v>
@@ -3958,28 +3958,28 @@
     </row>
     <row r="70" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="C70" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="E70" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F70" s="2" t="s">
+      <c r="G70" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="G70" s="2" t="s">
-        <v>427</v>
-      </c>
       <c r="H70" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I70" s="5">
         <v>44336</v>
@@ -3990,28 +3990,28 @@
     </row>
     <row r="71" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B71" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="C71" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="E71" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F71" s="2" t="s">
+      <c r="G71" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="G71" s="2" t="s">
-        <v>433</v>
-      </c>
       <c r="H71" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I71" s="5">
         <v>44963</v>
@@ -4022,28 +4022,28 @@
     </row>
     <row r="72" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="C72" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="E72" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F72" s="2" t="s">
+      <c r="G72" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="G72" s="2" t="s">
-        <v>439</v>
-      </c>
       <c r="H72" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I72" s="5">
         <v>45236</v>
@@ -4054,28 +4054,28 @@
     </row>
     <row r="73" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="C73" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="E73" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F73" s="2" t="s">
+      <c r="G73" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="G73" s="2" t="s">
-        <v>445</v>
-      </c>
       <c r="H73" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I73" s="5">
         <v>45041</v>
@@ -4086,28 +4086,28 @@
     </row>
     <row r="74" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="C74" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="D74" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="E74" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F74" s="2" t="s">
+      <c r="G74" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="G74" s="2" t="s">
-        <v>451</v>
-      </c>
       <c r="H74" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I74" s="5">
         <v>45104</v>
@@ -4118,28 +4118,28 @@
     </row>
     <row r="75" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="C75" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="D75" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="E75" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F75" s="2" t="s">
+      <c r="G75" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="G75" s="2" t="s">
-        <v>457</v>
-      </c>
       <c r="H75" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I75" s="5">
         <v>44835</v>
@@ -4150,28 +4150,28 @@
     </row>
     <row r="76" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B76" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="C76" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="D76" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="E76" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F76" s="2" t="s">
+      <c r="G76" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="G76" s="2" t="s">
-        <v>463</v>
-      </c>
       <c r="H76" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I76" s="5">
         <v>45020</v>
@@ -4182,28 +4182,28 @@
     </row>
     <row r="77" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="C77" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="E77" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F77" s="2" t="s">
+      <c r="G77" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="G77" s="2" t="s">
-        <v>469</v>
-      </c>
       <c r="H77" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I77" s="5">
         <v>45004</v>
